--- a/пакет для сайта/arctik line.xlsx
+++ b/пакет для сайта/arctik line.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27809"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vkozhushko/Dropbox/Webdesign/ArcticLine/пакет для сайта/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="8835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
   </bookViews>
   <sheets>
     <sheet name="Лист2" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" refMode="R1C1"/>
+  <calcPr calcId="150001" refMode="R1C1" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -276,10 +282,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00&quot;₴&quot;_-;\-* #,##0.00&quot;₴&quot;_-;_-* &quot;-&quot;??&quot;₴&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_₴_-;\-* #,##0.00_₴_-;_-* &quot;-&quot;??_₴_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;р.&quot;"/>
-    <numFmt numFmtId="165" formatCode="#,##0.00&quot;р.&quot;"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00&quot;₴&quot;_-;\-* #,##0.00&quot;₴&quot;_-;_-* &quot;-&quot;??&quot;₴&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00_₴_-;\-* #,##0.00_₴_-;_-* &quot;-&quot;??_₴_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;р.&quot;"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00&quot;р.&quot;"/>
   </numFmts>
   <fonts count="40" x14ac:knownFonts="1">
     <font>
@@ -647,7 +653,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -675,16 +681,16 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -708,7 +714,7 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -723,7 +729,7 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="21" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="21" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -800,28 +806,28 @@
     <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="34" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="34" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="43" fontId="24" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="24" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="30" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="30" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="34" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="34" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -834,63 +840,63 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="27" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="19" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="27" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="19" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="44" fontId="26" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Денежный" xfId="1" builtinId="4"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1941,314 +1947,314 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M477"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A148" zoomScale="118" zoomScalePageLayoutView="118" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="316" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" customWidth="1"/>
-    <col min="4" max="4" width="0.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="9.5" customWidth="1"/>
+    <col min="4" max="4" width="0.1640625" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
     <col min="6" max="7" width="10" customWidth="1"/>
     <col min="8" max="8" width="12" style="9" customWidth="1"/>
-    <col min="9" max="13" width="9.140625" customWidth="1"/>
+    <col min="9" max="13" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
-      <c r="C1" s="82" t="s">
+      <c r="C1" s="81" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="65"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="77"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="75"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
         <v>30</v>
       </c>
       <c r="B4" s="26"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="77"/>
-      <c r="M4" s="77"/>
-    </row>
-    <row r="5" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="70"/>
+    </row>
+    <row r="5" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="82"/>
-      <c r="H5" s="82"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="77"/>
-      <c r="M5" s="77"/>
-    </row>
-    <row r="6" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="70"/>
+    </row>
+    <row r="6" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="82"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="77"/>
-      <c r="L6" s="77"/>
-      <c r="M6" s="77"/>
-    </row>
-    <row r="7" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="70" t="s">
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="70"/>
+    </row>
+    <row r="7" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="82"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="77"/>
-      <c r="K7" s="77"/>
-      <c r="L7" s="77"/>
-      <c r="M7" s="77"/>
-    </row>
-    <row r="8" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="66"/>
-      <c r="C8" s="82"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="77"/>
-      <c r="J8" s="77"/>
-      <c r="K8" s="77"/>
-      <c r="L8" s="77"/>
-      <c r="M8" s="77"/>
-    </row>
-    <row r="9" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="66"/>
-      <c r="C9" s="82"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="77"/>
-      <c r="K9" s="77"/>
-      <c r="L9" s="77"/>
-      <c r="M9" s="77"/>
-    </row>
-    <row r="10" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="70"/>
+    </row>
+    <row r="8" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="80"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="70"/>
+    </row>
+    <row r="9" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="80"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="70"/>
+    </row>
+    <row r="10" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="82"/>
-      <c r="D10" s="82"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="82"/>
-      <c r="I10" s="77"/>
-      <c r="J10" s="77"/>
-      <c r="K10" s="77"/>
-      <c r="L10" s="77"/>
-      <c r="M10" s="77"/>
-    </row>
-    <row r="11" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="82"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="82"/>
-      <c r="I11" s="77"/>
-      <c r="J11" s="77"/>
-      <c r="K11" s="77"/>
-      <c r="L11" s="77"/>
-      <c r="M11" s="77"/>
-    </row>
-    <row r="12" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="70"/>
+    </row>
+    <row r="11" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="81"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="70"/>
+    </row>
+    <row r="12" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="82"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="82"/>
-      <c r="I12" s="77"/>
-      <c r="J12" s="77"/>
-      <c r="K12" s="77"/>
-      <c r="L12" s="77"/>
-      <c r="M12" s="77"/>
-    </row>
-    <row r="13" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="81"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="70"/>
+    </row>
+    <row r="13" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="77"/>
-      <c r="K13" s="77"/>
-      <c r="L13" s="77"/>
-      <c r="M13" s="77"/>
-    </row>
-    <row r="14" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="66" t="s">
+      <c r="C13" s="81"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="70"/>
+    </row>
+    <row r="14" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="82"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="82"/>
-      <c r="I14" s="77"/>
-      <c r="J14" s="77"/>
-      <c r="K14" s="77"/>
-      <c r="L14" s="77"/>
-      <c r="M14" s="77"/>
-    </row>
-    <row r="15" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="66"/>
-      <c r="C15" s="82"/>
-      <c r="D15" s="82"/>
-      <c r="E15" s="82"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="82"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="77"/>
-      <c r="K15" s="77"/>
-      <c r="L15" s="77"/>
-      <c r="M15" s="77"/>
-    </row>
-    <row r="16" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="66"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="82"/>
-      <c r="F16" s="82"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="82"/>
-      <c r="I16" s="77"/>
-      <c r="J16" s="77"/>
-      <c r="K16" s="77"/>
-      <c r="L16" s="77"/>
-      <c r="M16" s="77"/>
-    </row>
-    <row r="17" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="81"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="70"/>
+      <c r="L14" s="70"/>
+      <c r="M14" s="70"/>
+    </row>
+    <row r="15" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="80"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="70"/>
+      <c r="M15" s="70"/>
+    </row>
+    <row r="16" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="80"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="70"/>
+    </row>
+    <row r="17" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="82"/>
-      <c r="D17" s="82"/>
-      <c r="E17" s="82"/>
-      <c r="F17" s="82"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="82"/>
-      <c r="I17" s="77"/>
-      <c r="J17" s="77"/>
-      <c r="K17" s="77"/>
-      <c r="L17" s="77"/>
-      <c r="M17" s="77"/>
-    </row>
-    <row r="18" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="82"/>
-      <c r="D18" s="82"/>
-      <c r="E18" s="82"/>
-      <c r="F18" s="82"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="82"/>
-      <c r="I18" s="77"/>
-      <c r="J18" s="77"/>
-      <c r="K18" s="77"/>
-      <c r="L18" s="77"/>
-      <c r="M18" s="77"/>
-    </row>
-    <row r="19" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="81"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="70"/>
+      <c r="L17" s="70"/>
+      <c r="M17" s="70"/>
+    </row>
+    <row r="18" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C18" s="81"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="70"/>
+      <c r="K18" s="70"/>
+      <c r="L18" s="70"/>
+      <c r="M18" s="70"/>
+    </row>
+    <row r="19" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="41"/>
       <c r="B19" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="82"/>
-      <c r="D19" s="82"/>
-      <c r="E19" s="82"/>
-      <c r="F19" s="82"/>
-      <c r="G19" s="82"/>
-      <c r="H19" s="82"/>
-      <c r="I19" s="77"/>
-      <c r="J19" s="77"/>
-      <c r="K19" s="77"/>
-      <c r="L19" s="77"/>
-      <c r="M19" s="77"/>
-    </row>
-    <row r="20" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="81"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="81"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="70"/>
+      <c r="L19" s="70"/>
+      <c r="M19" s="70"/>
+    </row>
+    <row r="20" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="41"/>
       <c r="B20" s="34" t="s">
         <v>36</v>
@@ -2258,16 +2264,16 @@
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="77"/>
-      <c r="J20" s="77"/>
-      <c r="K20" s="77"/>
-      <c r="L20" s="77"/>
-      <c r="M20" s="77"/>
-    </row>
-    <row r="21" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H20" s="64"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="70"/>
+      <c r="M20" s="70"/>
+    </row>
+    <row r="21" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="41"/>
-      <c r="B21" s="66" t="s">
+      <c r="B21" s="80" t="s">
         <v>50</v>
       </c>
       <c r="C21" s="8"/>
@@ -2275,44 +2281,44 @@
       <c r="E21" s="56"/>
       <c r="F21" s="56"/>
       <c r="G21" s="56"/>
-      <c r="H21" s="67"/>
-      <c r="I21" s="77"/>
-      <c r="J21" s="77"/>
-      <c r="K21" s="77"/>
-      <c r="L21" s="77"/>
-      <c r="M21" s="77"/>
-    </row>
-    <row r="22" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H21" s="64"/>
+      <c r="I21" s="70"/>
+      <c r="J21" s="70"/>
+      <c r="K21" s="70"/>
+      <c r="L21" s="70"/>
+      <c r="M21" s="70"/>
+    </row>
+    <row r="22" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="41"/>
-      <c r="B22" s="66"/>
+      <c r="B22" s="80"/>
       <c r="C22" s="8"/>
       <c r="D22" s="11"/>
       <c r="E22" s="56"/>
       <c r="F22" s="56"/>
       <c r="G22" s="56"/>
-      <c r="H22" s="67"/>
-      <c r="I22" s="77"/>
-      <c r="J22" s="77"/>
-      <c r="K22" s="77"/>
-      <c r="L22" s="77"/>
-      <c r="M22" s="77"/>
-    </row>
-    <row r="23" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H22" s="64"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="70"/>
+      <c r="L22" s="70"/>
+      <c r="M22" s="70"/>
+    </row>
+    <row r="23" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="41"/>
-      <c r="B23" s="66"/>
+      <c r="B23" s="80"/>
       <c r="C23" s="8"/>
       <c r="D23" s="11"/>
       <c r="E23" s="56"/>
       <c r="F23" s="56"/>
       <c r="G23" s="56"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="77"/>
-      <c r="J23" s="77"/>
-      <c r="K23" s="77"/>
-      <c r="L23" s="77"/>
-      <c r="M23" s="77"/>
-    </row>
-    <row r="24" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H23" s="64"/>
+      <c r="I23" s="70"/>
+      <c r="J23" s="70"/>
+      <c r="K23" s="70"/>
+      <c r="L23" s="70"/>
+      <c r="M23" s="70"/>
+    </row>
+    <row r="24" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="41"/>
       <c r="B24" s="37" t="s">
         <v>43</v>
@@ -2322,40 +2328,40 @@
       <c r="E24" s="56"/>
       <c r="F24" s="56"/>
       <c r="G24" s="56"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="77"/>
-      <c r="J24" s="77"/>
-      <c r="K24" s="77"/>
-      <c r="L24" s="77"/>
-      <c r="M24" s="77"/>
-    </row>
-    <row r="25" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="77"/>
-      <c r="D25" s="77"/>
-      <c r="E25" s="77"/>
-      <c r="F25" s="77"/>
-      <c r="G25" s="77"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="77"/>
-      <c r="J25" s="77"/>
-      <c r="K25" s="77"/>
-      <c r="L25" s="77"/>
-      <c r="M25" s="77"/>
-    </row>
-    <row r="26" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="77"/>
-      <c r="D26" s="77"/>
-      <c r="E26" s="77"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="77"/>
-      <c r="H26" s="68"/>
-      <c r="I26" s="77"/>
-      <c r="J26" s="77"/>
-      <c r="K26" s="77"/>
-      <c r="L26" s="77"/>
-      <c r="M26" s="77"/>
-    </row>
-    <row r="27" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H24" s="64"/>
+      <c r="I24" s="70"/>
+      <c r="J24" s="70"/>
+      <c r="K24" s="70"/>
+      <c r="L24" s="70"/>
+      <c r="M24" s="70"/>
+    </row>
+    <row r="25" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C25" s="70"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="70"/>
+      <c r="J25" s="70"/>
+      <c r="K25" s="70"/>
+      <c r="L25" s="70"/>
+      <c r="M25" s="70"/>
+    </row>
+    <row r="26" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C26" s="70"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="70"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="70"/>
+      <c r="J26" s="70"/>
+      <c r="K26" s="70"/>
+      <c r="L26" s="70"/>
+      <c r="M26" s="70"/>
+    </row>
+    <row r="27" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="41"/>
       <c r="B27" s="13" t="s">
         <v>0</v>
@@ -2365,14 +2371,14 @@
       <c r="E27" s="18"/>
       <c r="F27" s="18"/>
       <c r="G27" s="19"/>
-      <c r="H27" s="68"/>
-      <c r="I27" s="77"/>
-      <c r="J27" s="77"/>
-      <c r="K27" s="77"/>
-      <c r="L27" s="77"/>
-      <c r="M27" s="77"/>
-    </row>
-    <row r="28" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H27" s="65"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="70"/>
+      <c r="L27" s="70"/>
+      <c r="M27" s="70"/>
+    </row>
+    <row r="28" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="41"/>
       <c r="B28" s="34" t="s">
         <v>31</v>
@@ -2382,16 +2388,16 @@
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
-      <c r="H28" s="67"/>
-      <c r="I28" s="77"/>
-      <c r="J28" s="77"/>
-      <c r="K28" s="77"/>
-      <c r="L28" s="77"/>
-      <c r="M28" s="77"/>
-    </row>
-    <row r="29" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H28" s="64"/>
+      <c r="I28" s="70"/>
+      <c r="J28" s="70"/>
+      <c r="K28" s="70"/>
+      <c r="L28" s="70"/>
+      <c r="M28" s="70"/>
+    </row>
+    <row r="29" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="41"/>
-      <c r="B29" s="66" t="s">
+      <c r="B29" s="80" t="s">
         <v>51</v>
       </c>
       <c r="C29" s="8"/>
@@ -2399,44 +2405,44 @@
       <c r="E29" s="56"/>
       <c r="F29" s="56"/>
       <c r="G29" s="56"/>
-      <c r="H29" s="67"/>
-      <c r="I29" s="77"/>
-      <c r="J29" s="77"/>
-      <c r="K29" s="77"/>
-      <c r="L29" s="77"/>
-      <c r="M29" s="77"/>
-    </row>
-    <row r="30" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H29" s="64"/>
+      <c r="I29" s="70"/>
+      <c r="J29" s="70"/>
+      <c r="K29" s="70"/>
+      <c r="L29" s="70"/>
+      <c r="M29" s="70"/>
+    </row>
+    <row r="30" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="41"/>
-      <c r="B30" s="66"/>
+      <c r="B30" s="80"/>
       <c r="C30" s="8"/>
       <c r="D30" s="11"/>
       <c r="E30" s="56"/>
       <c r="F30" s="56"/>
       <c r="G30" s="56"/>
-      <c r="H30" s="67"/>
-      <c r="I30" s="77"/>
-      <c r="J30" s="77"/>
-      <c r="K30" s="77"/>
-      <c r="L30" s="77"/>
-      <c r="M30" s="77"/>
-    </row>
-    <row r="31" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H30" s="64"/>
+      <c r="I30" s="70"/>
+      <c r="J30" s="70"/>
+      <c r="K30" s="70"/>
+      <c r="L30" s="70"/>
+      <c r="M30" s="70"/>
+    </row>
+    <row r="31" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="41"/>
-      <c r="B31" s="66"/>
+      <c r="B31" s="80"/>
       <c r="C31" s="8"/>
       <c r="D31" s="11"/>
       <c r="E31" s="56"/>
       <c r="F31" s="56"/>
       <c r="G31" s="56"/>
-      <c r="H31" s="67"/>
-      <c r="I31" s="77"/>
-      <c r="J31" s="77"/>
-      <c r="K31" s="77"/>
-      <c r="L31" s="77"/>
-      <c r="M31" s="77"/>
-    </row>
-    <row r="32" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H31" s="64"/>
+      <c r="I31" s="70"/>
+      <c r="J31" s="70"/>
+      <c r="K31" s="70"/>
+      <c r="L31" s="70"/>
+      <c r="M31" s="70"/>
+    </row>
+    <row r="32" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="41"/>
       <c r="B32" s="37" t="s">
         <v>44</v>
@@ -2446,56 +2452,56 @@
       <c r="E32" s="56"/>
       <c r="F32" s="56"/>
       <c r="G32" s="56"/>
-      <c r="H32" s="67"/>
-      <c r="I32" s="77"/>
-      <c r="J32" s="77"/>
-      <c r="K32" s="77"/>
-      <c r="L32" s="77"/>
-      <c r="M32" s="77"/>
-    </row>
-    <row r="33" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="77"/>
-      <c r="D33" s="77"/>
-      <c r="E33" s="77"/>
-      <c r="F33" s="77"/>
-      <c r="G33" s="77"/>
-      <c r="H33" s="68"/>
-      <c r="I33" s="77"/>
-      <c r="J33" s="77"/>
-      <c r="K33" s="77"/>
-      <c r="L33" s="77"/>
-      <c r="M33" s="77"/>
-    </row>
-    <row r="34" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="77"/>
-      <c r="D34" s="77"/>
-      <c r="E34" s="77"/>
-      <c r="F34" s="77"/>
-      <c r="G34" s="77"/>
-      <c r="H34" s="68"/>
-      <c r="I34" s="77"/>
-      <c r="J34" s="77"/>
-      <c r="K34" s="77"/>
-      <c r="L34" s="77"/>
-      <c r="M34" s="77"/>
-    </row>
-    <row r="35" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H32" s="64"/>
+      <c r="I32" s="70"/>
+      <c r="J32" s="70"/>
+      <c r="K32" s="70"/>
+      <c r="L32" s="70"/>
+      <c r="M32" s="70"/>
+    </row>
+    <row r="33" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C33" s="70"/>
+      <c r="D33" s="70"/>
+      <c r="E33" s="70"/>
+      <c r="F33" s="70"/>
+      <c r="G33" s="70"/>
+      <c r="H33" s="65"/>
+      <c r="I33" s="70"/>
+      <c r="J33" s="70"/>
+      <c r="K33" s="70"/>
+      <c r="L33" s="70"/>
+      <c r="M33" s="70"/>
+    </row>
+    <row r="34" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C34" s="70"/>
+      <c r="D34" s="70"/>
+      <c r="E34" s="70"/>
+      <c r="F34" s="70"/>
+      <c r="G34" s="70"/>
+      <c r="H34" s="65"/>
+      <c r="I34" s="70"/>
+      <c r="J34" s="70"/>
+      <c r="K34" s="70"/>
+      <c r="L34" s="70"/>
+      <c r="M34" s="70"/>
+    </row>
+    <row r="35" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="77"/>
-      <c r="D35" s="77"/>
-      <c r="E35" s="77"/>
-      <c r="F35" s="77"/>
-      <c r="G35" s="77"/>
-      <c r="H35" s="68"/>
-      <c r="I35" s="77"/>
-      <c r="J35" s="77"/>
-      <c r="K35" s="77"/>
-      <c r="L35" s="77"/>
-      <c r="M35" s="77"/>
-    </row>
-    <row r="36" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="70"/>
+      <c r="D35" s="70"/>
+      <c r="E35" s="70"/>
+      <c r="F35" s="70"/>
+      <c r="G35" s="70"/>
+      <c r="H35" s="65"/>
+      <c r="I35" s="70"/>
+      <c r="J35" s="70"/>
+      <c r="K35" s="70"/>
+      <c r="L35" s="70"/>
+      <c r="M35" s="70"/>
+    </row>
+    <row r="36" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="41"/>
       <c r="B36" s="13" t="s">
         <v>45</v>
@@ -2505,16 +2511,16 @@
       <c r="E36" s="18"/>
       <c r="F36" s="18"/>
       <c r="G36" s="19"/>
-      <c r="H36" s="68"/>
-      <c r="I36" s="77"/>
-      <c r="J36" s="77"/>
-      <c r="K36" s="77"/>
-      <c r="L36" s="77"/>
-      <c r="M36" s="77"/>
-    </row>
-    <row r="37" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H36" s="65"/>
+      <c r="I36" s="70"/>
+      <c r="J36" s="70"/>
+      <c r="K36" s="70"/>
+      <c r="L36" s="70"/>
+      <c r="M36" s="70"/>
+    </row>
+    <row r="37" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="41"/>
-      <c r="B37" s="71" t="s">
+      <c r="B37" s="77" t="s">
         <v>47</v>
       </c>
       <c r="C37" s="8"/>
@@ -2522,59 +2528,59 @@
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
-      <c r="H37" s="67"/>
-      <c r="I37" s="77"/>
-      <c r="J37" s="77"/>
-      <c r="K37" s="77"/>
-      <c r="L37" s="77"/>
-      <c r="M37" s="77"/>
-    </row>
-    <row r="38" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H37" s="64"/>
+      <c r="I37" s="70"/>
+      <c r="J37" s="70"/>
+      <c r="K37" s="70"/>
+      <c r="L37" s="70"/>
+      <c r="M37" s="70"/>
+    </row>
+    <row r="38" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="41"/>
-      <c r="B38" s="72"/>
+      <c r="B38" s="78"/>
       <c r="C38" s="8"/>
       <c r="D38" s="11"/>
       <c r="E38" s="56"/>
       <c r="F38" s="56"/>
       <c r="G38" s="56"/>
-      <c r="H38" s="67"/>
-      <c r="I38" s="77"/>
-      <c r="J38" s="77"/>
-      <c r="K38" s="77"/>
-      <c r="L38" s="77"/>
-      <c r="M38" s="77"/>
-    </row>
-    <row r="39" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H38" s="64"/>
+      <c r="I38" s="70"/>
+      <c r="J38" s="70"/>
+      <c r="K38" s="70"/>
+      <c r="L38" s="70"/>
+      <c r="M38" s="70"/>
+    </row>
+    <row r="39" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="41"/>
-      <c r="B39" s="72"/>
+      <c r="B39" s="78"/>
       <c r="C39" s="8"/>
       <c r="D39" s="11"/>
       <c r="E39" s="56"/>
       <c r="F39" s="56"/>
       <c r="G39" s="56"/>
-      <c r="H39" s="67"/>
-      <c r="I39" s="77"/>
-      <c r="J39" s="77"/>
-      <c r="K39" s="77"/>
-      <c r="L39" s="77"/>
-      <c r="M39" s="77"/>
-    </row>
-    <row r="40" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H39" s="64"/>
+      <c r="I39" s="70"/>
+      <c r="J39" s="70"/>
+      <c r="K39" s="70"/>
+      <c r="L39" s="70"/>
+      <c r="M39" s="70"/>
+    </row>
+    <row r="40" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="41"/>
-      <c r="B40" s="72"/>
+      <c r="B40" s="78"/>
       <c r="C40" s="8"/>
       <c r="D40" s="11"/>
       <c r="E40" s="56"/>
       <c r="F40" s="56"/>
       <c r="G40" s="56"/>
-      <c r="H40" s="67"/>
-      <c r="I40" s="77"/>
-      <c r="J40" s="77"/>
-      <c r="K40" s="77"/>
-      <c r="L40" s="77"/>
-      <c r="M40" s="77"/>
-    </row>
-    <row r="41" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H40" s="64"/>
+      <c r="I40" s="70"/>
+      <c r="J40" s="70"/>
+      <c r="K40" s="70"/>
+      <c r="L40" s="70"/>
+      <c r="M40" s="70"/>
+    </row>
+    <row r="41" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="41"/>
       <c r="B41" s="1" t="s">
         <v>46</v>
@@ -2584,131 +2590,131 @@
       <c r="E41" s="56"/>
       <c r="F41" s="56"/>
       <c r="G41" s="56"/>
-      <c r="H41" s="67"/>
-      <c r="I41" s="77"/>
-      <c r="J41" s="77"/>
-      <c r="K41" s="77"/>
-      <c r="L41" s="77"/>
-      <c r="M41" s="77"/>
-    </row>
-    <row r="42" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="77"/>
-      <c r="D42" s="77"/>
-      <c r="E42" s="77"/>
-      <c r="F42" s="77"/>
-      <c r="G42" s="77"/>
-      <c r="H42" s="68"/>
-      <c r="I42" s="77"/>
-      <c r="J42" s="77"/>
-      <c r="K42" s="77"/>
-      <c r="L42" s="77"/>
-      <c r="M42" s="77"/>
-    </row>
-    <row r="43" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C43" s="77"/>
-      <c r="D43" s="77"/>
-      <c r="E43" s="77"/>
-      <c r="F43" s="77"/>
-      <c r="G43" s="77"/>
-      <c r="H43" s="68"/>
-      <c r="I43" s="77"/>
-      <c r="J43" s="77"/>
-      <c r="K43" s="77"/>
-      <c r="L43" s="77"/>
-      <c r="M43" s="77"/>
-    </row>
-    <row r="44" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="77"/>
-      <c r="D44" s="77"/>
-      <c r="E44" s="77"/>
-      <c r="F44" s="77"/>
-      <c r="G44" s="77"/>
-      <c r="H44" s="68"/>
-      <c r="I44" s="77"/>
-      <c r="J44" s="77"/>
-      <c r="K44" s="77"/>
-      <c r="L44" s="77"/>
-      <c r="M44" s="77"/>
-    </row>
-    <row r="45" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C45" s="77"/>
-      <c r="D45" s="77"/>
-      <c r="E45" s="77"/>
-      <c r="F45" s="77"/>
-      <c r="G45" s="77"/>
-      <c r="H45" s="68"/>
-      <c r="I45" s="77"/>
-      <c r="J45" s="77"/>
-      <c r="K45" s="77"/>
-      <c r="L45" s="77"/>
-      <c r="M45" s="77"/>
-    </row>
-    <row r="46" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C46" s="77"/>
-      <c r="D46" s="77"/>
-      <c r="E46" s="77"/>
-      <c r="F46" s="77"/>
-      <c r="G46" s="77"/>
-      <c r="H46" s="68"/>
-      <c r="I46" s="77"/>
-      <c r="J46" s="77"/>
-      <c r="K46" s="77"/>
-      <c r="L46" s="77"/>
-      <c r="M46" s="77"/>
-    </row>
-    <row r="47" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C47" s="77"/>
-      <c r="D47" s="77"/>
-      <c r="E47" s="77"/>
-      <c r="F47" s="77"/>
-      <c r="G47" s="77"/>
-      <c r="H47" s="68"/>
-      <c r="I47" s="77"/>
-      <c r="J47" s="77"/>
-      <c r="K47" s="77"/>
-      <c r="L47" s="77"/>
-      <c r="M47" s="77"/>
-    </row>
-    <row r="48" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C48" s="77"/>
-      <c r="D48" s="77"/>
-      <c r="E48" s="77"/>
-      <c r="F48" s="77"/>
-      <c r="G48" s="77"/>
-      <c r="H48" s="68"/>
-      <c r="I48" s="77"/>
-      <c r="J48" s="77"/>
-      <c r="K48" s="77"/>
-      <c r="L48" s="77"/>
-      <c r="M48" s="77"/>
-    </row>
-    <row r="49" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C49" s="77"/>
-      <c r="D49" s="77"/>
-      <c r="E49" s="77"/>
-      <c r="F49" s="77"/>
-      <c r="G49" s="77"/>
-      <c r="H49" s="68"/>
-      <c r="I49" s="77"/>
-      <c r="J49" s="77"/>
-      <c r="K49" s="77"/>
-      <c r="L49" s="77"/>
-      <c r="M49" s="77"/>
-    </row>
-    <row r="50" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C50" s="77"/>
-      <c r="D50" s="77"/>
-      <c r="E50" s="77"/>
-      <c r="F50" s="77"/>
-      <c r="G50" s="77"/>
-      <c r="H50" s="68"/>
-      <c r="I50" s="77"/>
-      <c r="J50" s="77"/>
-      <c r="K50" s="77"/>
-      <c r="L50" s="77"/>
-      <c r="M50" s="77"/>
-    </row>
-    <row r="51" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H41" s="64"/>
+      <c r="I41" s="70"/>
+      <c r="J41" s="70"/>
+      <c r="K41" s="70"/>
+      <c r="L41" s="70"/>
+      <c r="M41" s="70"/>
+    </row>
+    <row r="42" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C42" s="70"/>
+      <c r="D42" s="70"/>
+      <c r="E42" s="70"/>
+      <c r="F42" s="70"/>
+      <c r="G42" s="70"/>
+      <c r="H42" s="65"/>
+      <c r="I42" s="70"/>
+      <c r="J42" s="70"/>
+      <c r="K42" s="70"/>
+      <c r="L42" s="70"/>
+      <c r="M42" s="70"/>
+    </row>
+    <row r="43" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C43" s="70"/>
+      <c r="D43" s="70"/>
+      <c r="E43" s="70"/>
+      <c r="F43" s="70"/>
+      <c r="G43" s="70"/>
+      <c r="H43" s="65"/>
+      <c r="I43" s="70"/>
+      <c r="J43" s="70"/>
+      <c r="K43" s="70"/>
+      <c r="L43" s="70"/>
+      <c r="M43" s="70"/>
+    </row>
+    <row r="44" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C44" s="70"/>
+      <c r="D44" s="70"/>
+      <c r="E44" s="70"/>
+      <c r="F44" s="70"/>
+      <c r="G44" s="70"/>
+      <c r="H44" s="65"/>
+      <c r="I44" s="70"/>
+      <c r="J44" s="70"/>
+      <c r="K44" s="70"/>
+      <c r="L44" s="70"/>
+      <c r="M44" s="70"/>
+    </row>
+    <row r="45" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C45" s="70"/>
+      <c r="D45" s="70"/>
+      <c r="E45" s="70"/>
+      <c r="F45" s="70"/>
+      <c r="G45" s="70"/>
+      <c r="H45" s="65"/>
+      <c r="I45" s="70"/>
+      <c r="J45" s="70"/>
+      <c r="K45" s="70"/>
+      <c r="L45" s="70"/>
+      <c r="M45" s="70"/>
+    </row>
+    <row r="46" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C46" s="70"/>
+      <c r="D46" s="70"/>
+      <c r="E46" s="70"/>
+      <c r="F46" s="70"/>
+      <c r="G46" s="70"/>
+      <c r="H46" s="65"/>
+      <c r="I46" s="70"/>
+      <c r="J46" s="70"/>
+      <c r="K46" s="70"/>
+      <c r="L46" s="70"/>
+      <c r="M46" s="70"/>
+    </row>
+    <row r="47" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C47" s="70"/>
+      <c r="D47" s="70"/>
+      <c r="E47" s="70"/>
+      <c r="F47" s="70"/>
+      <c r="G47" s="70"/>
+      <c r="H47" s="65"/>
+      <c r="I47" s="70"/>
+      <c r="J47" s="70"/>
+      <c r="K47" s="70"/>
+      <c r="L47" s="70"/>
+      <c r="M47" s="70"/>
+    </row>
+    <row r="48" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C48" s="70"/>
+      <c r="D48" s="70"/>
+      <c r="E48" s="70"/>
+      <c r="F48" s="70"/>
+      <c r="G48" s="70"/>
+      <c r="H48" s="65"/>
+      <c r="I48" s="70"/>
+      <c r="J48" s="70"/>
+      <c r="K48" s="70"/>
+      <c r="L48" s="70"/>
+      <c r="M48" s="70"/>
+    </row>
+    <row r="49" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C49" s="70"/>
+      <c r="D49" s="70"/>
+      <c r="E49" s="70"/>
+      <c r="F49" s="70"/>
+      <c r="G49" s="70"/>
+      <c r="H49" s="65"/>
+      <c r="I49" s="70"/>
+      <c r="J49" s="70"/>
+      <c r="K49" s="70"/>
+      <c r="L49" s="70"/>
+      <c r="M49" s="70"/>
+    </row>
+    <row r="50" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C50" s="70"/>
+      <c r="D50" s="70"/>
+      <c r="E50" s="70"/>
+      <c r="F50" s="70"/>
+      <c r="G50" s="70"/>
+      <c r="H50" s="65"/>
+      <c r="I50" s="70"/>
+      <c r="J50" s="70"/>
+      <c r="K50" s="70"/>
+      <c r="L50" s="70"/>
+      <c r="M50" s="70"/>
+    </row>
+    <row r="51" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="29" t="s">
         <v>1</v>
       </c>
@@ -2718,14 +2724,14 @@
       <c r="E51" s="18"/>
       <c r="F51" s="18"/>
       <c r="G51" s="19"/>
-      <c r="H51" s="68"/>
-      <c r="I51" s="77"/>
-      <c r="J51" s="77"/>
-      <c r="K51" s="77"/>
-      <c r="L51" s="77"/>
-      <c r="M51" s="77"/>
-    </row>
-    <row r="52" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H51" s="65"/>
+      <c r="I51" s="70"/>
+      <c r="J51" s="70"/>
+      <c r="K51" s="70"/>
+      <c r="L51" s="70"/>
+      <c r="M51" s="70"/>
+    </row>
+    <row r="52" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="31"/>
       <c r="B52" s="32" t="s">
         <v>2</v>
@@ -2735,14 +2741,14 @@
       <c r="E52" s="18"/>
       <c r="F52" s="18"/>
       <c r="G52" s="19"/>
-      <c r="H52" s="68"/>
-      <c r="I52" s="77"/>
-      <c r="J52" s="77"/>
-      <c r="K52" s="77"/>
-      <c r="L52" s="77"/>
-      <c r="M52" s="77"/>
-    </row>
-    <row r="53" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H52" s="65"/>
+      <c r="I52" s="70"/>
+      <c r="J52" s="70"/>
+      <c r="K52" s="70"/>
+      <c r="L52" s="70"/>
+      <c r="M52" s="70"/>
+    </row>
+    <row r="53" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="31"/>
       <c r="B53" s="32"/>
       <c r="C53" s="8"/>
@@ -2750,16 +2756,16 @@
       <c r="E53" s="54"/>
       <c r="F53" s="54"/>
       <c r="G53" s="54"/>
-      <c r="H53" s="78"/>
-      <c r="I53" s="77"/>
-      <c r="J53" s="77"/>
-      <c r="K53" s="77"/>
-      <c r="L53" s="77"/>
-      <c r="M53" s="77"/>
-    </row>
-    <row r="54" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H53" s="71"/>
+      <c r="I53" s="70"/>
+      <c r="J53" s="70"/>
+      <c r="K53" s="70"/>
+      <c r="L53" s="70"/>
+      <c r="M53" s="70"/>
+    </row>
+    <row r="54" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="31"/>
-      <c r="B54" s="73" t="s">
+      <c r="B54" s="76" t="s">
         <v>3</v>
       </c>
       <c r="C54" s="8"/>
@@ -2768,43 +2774,43 @@
       <c r="F54" s="56"/>
       <c r="G54" s="56"/>
       <c r="H54" s="25"/>
-      <c r="I54" s="77"/>
-      <c r="J54" s="77"/>
-      <c r="K54" s="77"/>
-      <c r="L54" s="77"/>
-      <c r="M54" s="77"/>
-    </row>
-    <row r="55" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I54" s="70"/>
+      <c r="J54" s="70"/>
+      <c r="K54" s="70"/>
+      <c r="L54" s="70"/>
+      <c r="M54" s="70"/>
+    </row>
+    <row r="55" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="31"/>
-      <c r="B55" s="73"/>
+      <c r="B55" s="76"/>
       <c r="C55" s="8"/>
       <c r="D55" s="11"/>
       <c r="E55" s="56"/>
       <c r="F55" s="56"/>
       <c r="G55" s="56"/>
       <c r="H55" s="25"/>
-      <c r="I55" s="77"/>
-      <c r="J55" s="77"/>
-      <c r="K55" s="77"/>
-      <c r="L55" s="77"/>
-      <c r="M55" s="77"/>
-    </row>
-    <row r="56" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I55" s="70"/>
+      <c r="J55" s="70"/>
+      <c r="K55" s="70"/>
+      <c r="L55" s="70"/>
+      <c r="M55" s="70"/>
+    </row>
+    <row r="56" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="31"/>
-      <c r="B56" s="73"/>
+      <c r="B56" s="76"/>
       <c r="C56" s="8"/>
       <c r="D56" s="11"/>
       <c r="E56" s="56"/>
       <c r="F56" s="56"/>
       <c r="G56" s="56"/>
       <c r="H56" s="25"/>
-      <c r="I56" s="77"/>
-      <c r="J56" s="77"/>
-      <c r="K56" s="77"/>
-      <c r="L56" s="77"/>
-      <c r="M56" s="77"/>
-    </row>
-    <row r="57" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I56" s="70"/>
+      <c r="J56" s="70"/>
+      <c r="K56" s="70"/>
+      <c r="L56" s="70"/>
+      <c r="M56" s="70"/>
+    </row>
+    <row r="57" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="31"/>
       <c r="B57" s="1" t="s">
         <v>4</v>
@@ -2815,26 +2821,26 @@
       <c r="F57" s="56"/>
       <c r="G57" s="56"/>
       <c r="H57" s="25"/>
-      <c r="I57" s="77"/>
-      <c r="J57" s="77"/>
-      <c r="K57" s="77"/>
-      <c r="L57" s="77"/>
-      <c r="M57" s="77"/>
-    </row>
-    <row r="58" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C58" s="77"/>
-      <c r="D58" s="77"/>
-      <c r="E58" s="77"/>
-      <c r="F58" s="77"/>
-      <c r="G58" s="77"/>
-      <c r="H58" s="68"/>
-      <c r="I58" s="77"/>
-      <c r="J58" s="77"/>
-      <c r="K58" s="77"/>
-      <c r="L58" s="77"/>
-      <c r="M58" s="77"/>
-    </row>
-    <row r="59" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I57" s="70"/>
+      <c r="J57" s="70"/>
+      <c r="K57" s="70"/>
+      <c r="L57" s="70"/>
+      <c r="M57" s="70"/>
+    </row>
+    <row r="58" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C58" s="70"/>
+      <c r="D58" s="70"/>
+      <c r="E58" s="70"/>
+      <c r="F58" s="70"/>
+      <c r="G58" s="70"/>
+      <c r="H58" s="65"/>
+      <c r="I58" s="70"/>
+      <c r="J58" s="70"/>
+      <c r="K58" s="70"/>
+      <c r="L58" s="70"/>
+      <c r="M58" s="70"/>
+    </row>
+    <row r="59" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="35" t="s">
         <v>5</v>
       </c>
@@ -2844,14 +2850,14 @@
       <c r="E59" s="18"/>
       <c r="F59" s="18"/>
       <c r="G59" s="19"/>
-      <c r="H59" s="68"/>
-      <c r="I59" s="77"/>
-      <c r="J59" s="77"/>
-      <c r="K59" s="77"/>
-      <c r="L59" s="77"/>
-      <c r="M59" s="77"/>
-    </row>
-    <row r="60" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H59" s="65"/>
+      <c r="I59" s="70"/>
+      <c r="J59" s="70"/>
+      <c r="K59" s="70"/>
+      <c r="L59" s="70"/>
+      <c r="M59" s="70"/>
+    </row>
+    <row r="60" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="31"/>
       <c r="B60" s="33" t="s">
         <v>6</v>
@@ -2861,14 +2867,14 @@
       <c r="E60" s="11"/>
       <c r="F60" s="11"/>
       <c r="G60" s="11"/>
-      <c r="H60" s="78"/>
-      <c r="I60" s="77"/>
-      <c r="J60" s="77"/>
-      <c r="K60" s="77"/>
-      <c r="L60" s="77"/>
-      <c r="M60" s="77"/>
-    </row>
-    <row r="61" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H60" s="71"/>
+      <c r="I60" s="70"/>
+      <c r="J60" s="70"/>
+      <c r="K60" s="70"/>
+      <c r="L60" s="70"/>
+      <c r="M60" s="70"/>
+    </row>
+    <row r="61" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="31"/>
       <c r="B61" s="34"/>
       <c r="C61" s="8"/>
@@ -2877,15 +2883,15 @@
       <c r="F61" s="56"/>
       <c r="G61" s="56"/>
       <c r="H61" s="25"/>
-      <c r="I61" s="77"/>
-      <c r="J61" s="77"/>
-      <c r="K61" s="77"/>
-      <c r="L61" s="77"/>
-      <c r="M61" s="77"/>
-    </row>
-    <row r="62" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I61" s="70"/>
+      <c r="J61" s="70"/>
+      <c r="K61" s="70"/>
+      <c r="L61" s="70"/>
+      <c r="M61" s="70"/>
+    </row>
+    <row r="62" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="41"/>
-      <c r="B62" s="73" t="s">
+      <c r="B62" s="76" t="s">
         <v>7</v>
       </c>
       <c r="C62" s="8"/>
@@ -2894,43 +2900,43 @@
       <c r="F62" s="56"/>
       <c r="G62" s="56"/>
       <c r="H62" s="25"/>
-      <c r="I62" s="77"/>
-      <c r="J62" s="77"/>
-      <c r="K62" s="77"/>
-      <c r="L62" s="77"/>
-      <c r="M62" s="77"/>
-    </row>
-    <row r="63" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I62" s="70"/>
+      <c r="J62" s="70"/>
+      <c r="K62" s="70"/>
+      <c r="L62" s="70"/>
+      <c r="M62" s="70"/>
+    </row>
+    <row r="63" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="41"/>
-      <c r="B63" s="73"/>
+      <c r="B63" s="76"/>
       <c r="C63" s="8"/>
       <c r="D63" s="11"/>
       <c r="E63" s="56"/>
       <c r="F63" s="56"/>
       <c r="G63" s="56"/>
       <c r="H63" s="25"/>
-      <c r="I63" s="77"/>
-      <c r="J63" s="77"/>
-      <c r="K63" s="77"/>
-      <c r="L63" s="77"/>
-      <c r="M63" s="77"/>
-    </row>
-    <row r="64" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I63" s="70"/>
+      <c r="J63" s="70"/>
+      <c r="K63" s="70"/>
+      <c r="L63" s="70"/>
+      <c r="M63" s="70"/>
+    </row>
+    <row r="64" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="41"/>
-      <c r="B64" s="73"/>
+      <c r="B64" s="76"/>
       <c r="C64" s="8"/>
       <c r="D64" s="11"/>
       <c r="E64" s="56"/>
       <c r="F64" s="56"/>
       <c r="G64" s="56"/>
       <c r="H64" s="25"/>
-      <c r="I64" s="77"/>
-      <c r="J64" s="77"/>
-      <c r="K64" s="77"/>
-      <c r="L64" s="77"/>
-      <c r="M64" s="77"/>
-    </row>
-    <row r="65" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I64" s="70"/>
+      <c r="J64" s="70"/>
+      <c r="K64" s="70"/>
+      <c r="L64" s="70"/>
+      <c r="M64" s="70"/>
+    </row>
+    <row r="65" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="41"/>
       <c r="B65" s="1" t="s">
         <v>8</v>
@@ -2941,26 +2947,26 @@
       <c r="F65" s="56"/>
       <c r="G65" s="56"/>
       <c r="H65" s="25"/>
-      <c r="I65" s="77"/>
-      <c r="J65" s="77"/>
-      <c r="K65" s="77"/>
-      <c r="L65" s="77"/>
-      <c r="M65" s="77"/>
-    </row>
-    <row r="66" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C66" s="77"/>
-      <c r="D66" s="77"/>
-      <c r="E66" s="77"/>
-      <c r="F66" s="77"/>
-      <c r="G66" s="77"/>
-      <c r="H66" s="68"/>
-      <c r="I66" s="77"/>
-      <c r="J66" s="77"/>
-      <c r="K66" s="77"/>
-      <c r="L66" s="77"/>
-      <c r="M66" s="77"/>
-    </row>
-    <row r="67" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I65" s="70"/>
+      <c r="J65" s="70"/>
+      <c r="K65" s="70"/>
+      <c r="L65" s="70"/>
+      <c r="M65" s="70"/>
+    </row>
+    <row r="66" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C66" s="70"/>
+      <c r="D66" s="70"/>
+      <c r="E66" s="70"/>
+      <c r="F66" s="70"/>
+      <c r="G66" s="70"/>
+      <c r="H66" s="65"/>
+      <c r="I66" s="70"/>
+      <c r="J66" s="70"/>
+      <c r="K66" s="70"/>
+      <c r="L66" s="70"/>
+      <c r="M66" s="70"/>
+    </row>
+    <row r="67" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2"/>
       <c r="B67" s="3"/>
       <c r="C67" s="17"/>
@@ -2968,16 +2974,16 @@
       <c r="E67" s="18"/>
       <c r="F67" s="18"/>
       <c r="G67" s="19"/>
-      <c r="H67" s="68"/>
-      <c r="I67" s="77"/>
-      <c r="J67" s="77"/>
-      <c r="K67" s="77"/>
-      <c r="L67" s="77"/>
-      <c r="M67" s="77"/>
-    </row>
-    <row r="68" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H67" s="65"/>
+      <c r="I67" s="70"/>
+      <c r="J67" s="70"/>
+      <c r="K67" s="70"/>
+      <c r="L67" s="70"/>
+      <c r="M67" s="70"/>
+    </row>
+    <row r="68" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="41"/>
-      <c r="B68" s="74" t="s">
+      <c r="B68" s="67" t="s">
         <v>9</v>
       </c>
       <c r="C68" s="8"/>
@@ -2985,16 +2991,16 @@
       <c r="E68" s="11"/>
       <c r="F68" s="11"/>
       <c r="G68" s="11"/>
-      <c r="H68" s="78"/>
-      <c r="I68" s="77"/>
-      <c r="J68" s="77"/>
-      <c r="K68" s="77"/>
-      <c r="L68" s="77"/>
-      <c r="M68" s="77"/>
-    </row>
-    <row r="69" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H68" s="71"/>
+      <c r="I68" s="70"/>
+      <c r="J68" s="70"/>
+      <c r="K68" s="70"/>
+      <c r="L68" s="70"/>
+      <c r="M68" s="70"/>
+    </row>
+    <row r="69" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="41"/>
-      <c r="B69" s="73" t="s">
+      <c r="B69" s="76" t="s">
         <v>10</v>
       </c>
       <c r="C69" s="8"/>
@@ -3003,43 +3009,43 @@
       <c r="F69" s="56"/>
       <c r="G69" s="56"/>
       <c r="H69" s="25"/>
-      <c r="I69" s="77"/>
-      <c r="J69" s="77"/>
-      <c r="K69" s="77"/>
-      <c r="L69" s="77"/>
-      <c r="M69" s="77"/>
-    </row>
-    <row r="70" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I69" s="70"/>
+      <c r="J69" s="70"/>
+      <c r="K69" s="70"/>
+      <c r="L69" s="70"/>
+      <c r="M69" s="70"/>
+    </row>
+    <row r="70" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="41"/>
-      <c r="B70" s="73"/>
+      <c r="B70" s="76"/>
       <c r="C70" s="8"/>
       <c r="D70" s="11"/>
       <c r="E70" s="56"/>
       <c r="F70" s="56"/>
       <c r="G70" s="56"/>
       <c r="H70" s="25"/>
-      <c r="I70" s="77"/>
-      <c r="J70" s="77"/>
-      <c r="K70" s="77"/>
-      <c r="L70" s="77"/>
-      <c r="M70" s="77"/>
-    </row>
-    <row r="71" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I70" s="70"/>
+      <c r="J70" s="70"/>
+      <c r="K70" s="70"/>
+      <c r="L70" s="70"/>
+      <c r="M70" s="70"/>
+    </row>
+    <row r="71" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="41"/>
-      <c r="B71" s="73"/>
+      <c r="B71" s="76"/>
       <c r="C71" s="8"/>
       <c r="D71" s="11"/>
       <c r="E71" s="56"/>
       <c r="F71" s="56"/>
       <c r="G71" s="56"/>
       <c r="H71" s="25"/>
-      <c r="I71" s="77"/>
-      <c r="J71" s="77"/>
-      <c r="K71" s="77"/>
-      <c r="L71" s="77"/>
-      <c r="M71" s="77"/>
-    </row>
-    <row r="72" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I71" s="70"/>
+      <c r="J71" s="70"/>
+      <c r="K71" s="70"/>
+      <c r="L71" s="70"/>
+      <c r="M71" s="70"/>
+    </row>
+    <row r="72" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="41"/>
       <c r="B72" s="63"/>
       <c r="C72" s="8"/>
@@ -3048,13 +3054,13 @@
       <c r="F72" s="56"/>
       <c r="G72" s="56"/>
       <c r="H72" s="25"/>
-      <c r="I72" s="77"/>
-      <c r="J72" s="77"/>
-      <c r="K72" s="77"/>
-      <c r="L72" s="77"/>
-      <c r="M72" s="77"/>
-    </row>
-    <row r="73" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I72" s="70"/>
+      <c r="J72" s="70"/>
+      <c r="K72" s="70"/>
+      <c r="L72" s="70"/>
+      <c r="M72" s="70"/>
+    </row>
+    <row r="73" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="41"/>
       <c r="B73" s="1" t="s">
         <v>11</v>
@@ -3065,26 +3071,26 @@
       <c r="F73" s="56"/>
       <c r="G73" s="56"/>
       <c r="H73" s="25"/>
-      <c r="I73" s="77"/>
-      <c r="J73" s="77"/>
-      <c r="K73" s="77"/>
-      <c r="L73" s="77"/>
-      <c r="M73" s="77"/>
-    </row>
-    <row r="74" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C74" s="77"/>
-      <c r="D74" s="77"/>
-      <c r="E74" s="77"/>
-      <c r="F74" s="77"/>
-      <c r="G74" s="77"/>
-      <c r="H74" s="68"/>
-      <c r="I74" s="77"/>
-      <c r="J74" s="77"/>
-      <c r="K74" s="77"/>
-      <c r="L74" s="77"/>
-      <c r="M74" s="77"/>
-    </row>
-    <row r="75" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I73" s="70"/>
+      <c r="J73" s="70"/>
+      <c r="K73" s="70"/>
+      <c r="L73" s="70"/>
+      <c r="M73" s="70"/>
+    </row>
+    <row r="74" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C74" s="70"/>
+      <c r="D74" s="70"/>
+      <c r="E74" s="70"/>
+      <c r="F74" s="70"/>
+      <c r="G74" s="70"/>
+      <c r="H74" s="65"/>
+      <c r="I74" s="70"/>
+      <c r="J74" s="70"/>
+      <c r="K74" s="70"/>
+      <c r="L74" s="70"/>
+      <c r="M74" s="70"/>
+    </row>
+    <row r="75" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="16" t="s">
         <v>32</v>
       </c>
@@ -3095,13 +3101,13 @@
       <c r="F75" s="18"/>
       <c r="G75" s="19"/>
       <c r="H75" s="12"/>
-      <c r="I75" s="77"/>
-      <c r="J75" s="77"/>
-      <c r="K75" s="77"/>
-      <c r="L75" s="77"/>
-      <c r="M75" s="77"/>
-    </row>
-    <row r="76" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I75" s="70"/>
+      <c r="J75" s="70"/>
+      <c r="K75" s="70"/>
+      <c r="L75" s="70"/>
+      <c r="M75" s="70"/>
+    </row>
+    <row r="76" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="41"/>
       <c r="B76" s="38" t="s">
         <v>25</v>
@@ -3111,16 +3117,16 @@
       <c r="E76" s="11"/>
       <c r="F76" s="11"/>
       <c r="G76" s="11"/>
-      <c r="H76" s="78"/>
-      <c r="I76" s="77"/>
-      <c r="J76" s="77"/>
-      <c r="K76" s="77"/>
-      <c r="L76" s="77"/>
-      <c r="M76" s="77"/>
-    </row>
-    <row r="77" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H76" s="71"/>
+      <c r="I76" s="70"/>
+      <c r="J76" s="70"/>
+      <c r="K76" s="70"/>
+      <c r="L76" s="70"/>
+      <c r="M76" s="70"/>
+    </row>
+    <row r="77" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="41"/>
-      <c r="B77" s="73" t="s">
+      <c r="B77" s="76" t="s">
         <v>26</v>
       </c>
       <c r="C77" s="8"/>
@@ -3129,43 +3135,43 @@
       <c r="F77" s="56"/>
       <c r="G77" s="56"/>
       <c r="H77" s="25"/>
-      <c r="I77" s="77"/>
-      <c r="J77" s="77"/>
-      <c r="K77" s="77"/>
-      <c r="L77" s="77"/>
-      <c r="M77" s="77"/>
-    </row>
-    <row r="78" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I77" s="70"/>
+      <c r="J77" s="70"/>
+      <c r="K77" s="70"/>
+      <c r="L77" s="70"/>
+      <c r="M77" s="70"/>
+    </row>
+    <row r="78" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="41"/>
-      <c r="B78" s="73"/>
+      <c r="B78" s="76"/>
       <c r="C78" s="8"/>
       <c r="D78" s="11"/>
       <c r="E78" s="56"/>
       <c r="F78" s="56"/>
       <c r="G78" s="56"/>
       <c r="H78" s="25"/>
-      <c r="I78" s="77"/>
-      <c r="J78" s="77"/>
-      <c r="K78" s="77"/>
-      <c r="L78" s="77"/>
-      <c r="M78" s="77"/>
-    </row>
-    <row r="79" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I78" s="70"/>
+      <c r="J78" s="70"/>
+      <c r="K78" s="70"/>
+      <c r="L78" s="70"/>
+      <c r="M78" s="70"/>
+    </row>
+    <row r="79" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="41"/>
-      <c r="B79" s="73"/>
+      <c r="B79" s="76"/>
       <c r="C79" s="8"/>
       <c r="D79" s="11"/>
       <c r="E79" s="56"/>
       <c r="F79" s="56"/>
       <c r="G79" s="56"/>
       <c r="H79" s="25"/>
-      <c r="I79" s="77"/>
-      <c r="J79" s="77"/>
-      <c r="K79" s="77"/>
-      <c r="L79" s="77"/>
-      <c r="M79" s="77"/>
-    </row>
-    <row r="80" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I79" s="70"/>
+      <c r="J79" s="70"/>
+      <c r="K79" s="70"/>
+      <c r="L79" s="70"/>
+      <c r="M79" s="70"/>
+    </row>
+    <row r="80" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="41"/>
       <c r="B80" s="39"/>
       <c r="C80" s="8"/>
@@ -3174,13 +3180,13 @@
       <c r="F80" s="56"/>
       <c r="G80" s="56"/>
       <c r="H80" s="25"/>
-      <c r="I80" s="77"/>
-      <c r="J80" s="77"/>
-      <c r="K80" s="77"/>
-      <c r="L80" s="77"/>
-      <c r="M80" s="77"/>
-    </row>
-    <row r="81" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I80" s="70"/>
+      <c r="J80" s="70"/>
+      <c r="K80" s="70"/>
+      <c r="L80" s="70"/>
+      <c r="M80" s="70"/>
+    </row>
+    <row r="81" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="41"/>
       <c r="B81" s="4" t="s">
         <v>11</v>
@@ -3191,13 +3197,13 @@
       <c r="F81" s="56"/>
       <c r="G81" s="56"/>
       <c r="H81" s="25"/>
-      <c r="I81" s="77"/>
-      <c r="J81" s="77"/>
-      <c r="K81" s="77"/>
-      <c r="L81" s="77"/>
-      <c r="M81" s="77"/>
-    </row>
-    <row r="82" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I81" s="70"/>
+      <c r="J81" s="70"/>
+      <c r="K81" s="70"/>
+      <c r="L81" s="70"/>
+      <c r="M81" s="70"/>
+    </row>
+    <row r="82" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="21"/>
       <c r="B82" s="22"/>
       <c r="C82" s="8"/>
@@ -3206,13 +3212,13 @@
       <c r="F82" s="11"/>
       <c r="G82" s="11"/>
       <c r="H82" s="12"/>
-      <c r="I82" s="77"/>
-      <c r="J82" s="77"/>
-      <c r="K82" s="77"/>
-      <c r="L82" s="77"/>
-      <c r="M82" s="77"/>
-    </row>
-    <row r="83" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I82" s="70"/>
+      <c r="J82" s="70"/>
+      <c r="K82" s="70"/>
+      <c r="L82" s="70"/>
+      <c r="M82" s="70"/>
+    </row>
+    <row r="83" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="27"/>
       <c r="B83" s="23"/>
       <c r="C83" s="24"/>
@@ -3221,13 +3227,13 @@
       <c r="F83" s="11"/>
       <c r="G83" s="11"/>
       <c r="H83" s="12"/>
-      <c r="I83" s="77"/>
-      <c r="J83" s="77"/>
-      <c r="K83" s="77"/>
-      <c r="L83" s="77"/>
-      <c r="M83" s="77"/>
-    </row>
-    <row r="84" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I83" s="70"/>
+      <c r="J83" s="70"/>
+      <c r="K83" s="70"/>
+      <c r="L83" s="70"/>
+      <c r="M83" s="70"/>
+    </row>
+    <row r="84" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="40" t="s">
         <v>12</v>
       </c>
@@ -3238,15 +3244,15 @@
       <c r="F84" s="18"/>
       <c r="G84" s="19"/>
       <c r="H84" s="12"/>
-      <c r="I84" s="77"/>
-      <c r="J84" s="77"/>
-      <c r="K84" s="77"/>
-      <c r="L84" s="77"/>
-      <c r="M84" s="77"/>
-    </row>
-    <row r="85" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I84" s="70"/>
+      <c r="J84" s="70"/>
+      <c r="K84" s="70"/>
+      <c r="L84" s="70"/>
+      <c r="M84" s="70"/>
+    </row>
+    <row r="85" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="41"/>
-      <c r="B85" s="75" t="s">
+      <c r="B85" s="68" t="s">
         <v>13</v>
       </c>
       <c r="C85" s="8"/>
@@ -3254,31 +3260,31 @@
       <c r="E85" s="11"/>
       <c r="F85" s="11"/>
       <c r="G85" s="11"/>
-      <c r="H85" s="78"/>
-      <c r="I85" s="77"/>
-      <c r="J85" s="77"/>
-      <c r="K85" s="77"/>
-      <c r="L85" s="77"/>
-      <c r="M85" s="77"/>
-    </row>
-    <row r="86" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H85" s="71"/>
+      <c r="I85" s="70"/>
+      <c r="J85" s="70"/>
+      <c r="K85" s="70"/>
+      <c r="L85" s="70"/>
+      <c r="M85" s="70"/>
+    </row>
+    <row r="86" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="41"/>
-      <c r="B86" s="75"/>
+      <c r="B86" s="68"/>
       <c r="C86" s="8"/>
       <c r="D86" s="11"/>
       <c r="E86" s="56"/>
       <c r="F86" s="56"/>
       <c r="G86" s="56"/>
       <c r="H86" s="25"/>
-      <c r="I86" s="77"/>
-      <c r="J86" s="77"/>
-      <c r="K86" s="77"/>
-      <c r="L86" s="77"/>
-      <c r="M86" s="77"/>
-    </row>
-    <row r="87" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I86" s="70"/>
+      <c r="J86" s="70"/>
+      <c r="K86" s="70"/>
+      <c r="L86" s="70"/>
+      <c r="M86" s="70"/>
+    </row>
+    <row r="87" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="41"/>
-      <c r="B87" s="73" t="s">
+      <c r="B87" s="76" t="s">
         <v>14</v>
       </c>
       <c r="C87" s="8"/>
@@ -3287,28 +3293,28 @@
       <c r="F87" s="56"/>
       <c r="G87" s="56"/>
       <c r="H87" s="25"/>
-      <c r="I87" s="77"/>
-      <c r="J87" s="77"/>
-      <c r="K87" s="77"/>
-      <c r="L87" s="77"/>
-      <c r="M87" s="77"/>
-    </row>
-    <row r="88" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I87" s="70"/>
+      <c r="J87" s="70"/>
+      <c r="K87" s="70"/>
+      <c r="L87" s="70"/>
+      <c r="M87" s="70"/>
+    </row>
+    <row r="88" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="41"/>
-      <c r="B88" s="73"/>
+      <c r="B88" s="76"/>
       <c r="C88" s="8"/>
       <c r="D88" s="11"/>
       <c r="E88" s="56"/>
       <c r="F88" s="56"/>
       <c r="G88" s="56"/>
       <c r="H88" s="25"/>
-      <c r="I88" s="77"/>
-      <c r="J88" s="77"/>
-      <c r="K88" s="77"/>
-      <c r="L88" s="77"/>
-      <c r="M88" s="77"/>
-    </row>
-    <row r="89" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I88" s="70"/>
+      <c r="J88" s="70"/>
+      <c r="K88" s="70"/>
+      <c r="L88" s="70"/>
+      <c r="M88" s="70"/>
+    </row>
+    <row r="89" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="41"/>
       <c r="B89" s="63"/>
       <c r="C89" s="8"/>
@@ -3317,13 +3323,13 @@
       <c r="F89" s="56"/>
       <c r="G89" s="56"/>
       <c r="H89" s="25"/>
-      <c r="I89" s="77"/>
-      <c r="J89" s="77"/>
-      <c r="K89" s="77"/>
-      <c r="L89" s="77"/>
-      <c r="M89" s="77"/>
-    </row>
-    <row r="90" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I89" s="70"/>
+      <c r="J89" s="70"/>
+      <c r="K89" s="70"/>
+      <c r="L89" s="70"/>
+      <c r="M89" s="70"/>
+    </row>
+    <row r="90" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="41"/>
       <c r="B90" s="6" t="s">
         <v>15</v>
@@ -3333,14 +3339,14 @@
       <c r="E90" s="18"/>
       <c r="F90" s="11"/>
       <c r="G90" s="19"/>
-      <c r="H90" s="68"/>
-      <c r="I90" s="77"/>
-      <c r="J90" s="77"/>
-      <c r="K90" s="77"/>
-      <c r="L90" s="77"/>
-      <c r="M90" s="77"/>
-    </row>
-    <row r="91" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H90" s="65"/>
+      <c r="I90" s="70"/>
+      <c r="J90" s="70"/>
+      <c r="K90" s="70"/>
+      <c r="L90" s="70"/>
+      <c r="M90" s="70"/>
+    </row>
+    <row r="91" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="41"/>
       <c r="B91" s="14"/>
       <c r="C91" s="50"/>
@@ -3349,13 +3355,13 @@
       <c r="F91" s="51"/>
       <c r="G91" s="51"/>
       <c r="H91" s="52"/>
-      <c r="I91" s="77"/>
-      <c r="J91" s="77"/>
-      <c r="K91" s="77"/>
-      <c r="L91" s="77"/>
-      <c r="M91" s="77"/>
-    </row>
-    <row r="92" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I91" s="70"/>
+      <c r="J91" s="70"/>
+      <c r="K91" s="70"/>
+      <c r="L91" s="70"/>
+      <c r="M91" s="70"/>
+    </row>
+    <row r="92" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="7"/>
       <c r="B92" s="49"/>
       <c r="C92" s="53"/>
@@ -3364,13 +3370,13 @@
       <c r="F92" s="54"/>
       <c r="G92" s="54"/>
       <c r="H92" s="55"/>
-      <c r="I92" s="77"/>
-      <c r="J92" s="77"/>
-      <c r="K92" s="77"/>
-      <c r="L92" s="77"/>
-      <c r="M92" s="77"/>
-    </row>
-    <row r="93" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I92" s="70"/>
+      <c r="J92" s="70"/>
+      <c r="K92" s="70"/>
+      <c r="L92" s="70"/>
+      <c r="M92" s="70"/>
+    </row>
+    <row r="93" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="41"/>
       <c r="B93" s="49"/>
       <c r="C93" s="53"/>
@@ -3379,13 +3385,13 @@
       <c r="F93" s="56"/>
       <c r="G93" s="56"/>
       <c r="H93" s="57"/>
-      <c r="I93" s="77"/>
-      <c r="J93" s="77"/>
-      <c r="K93" s="77"/>
-      <c r="L93" s="77"/>
-      <c r="M93" s="77"/>
-    </row>
-    <row r="94" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I93" s="70"/>
+      <c r="J93" s="70"/>
+      <c r="K93" s="70"/>
+      <c r="L93" s="70"/>
+      <c r="M93" s="70"/>
+    </row>
+    <row r="94" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="41"/>
       <c r="B94" s="49"/>
       <c r="C94" s="53"/>
@@ -3394,13 +3400,13 @@
       <c r="F94" s="56"/>
       <c r="G94" s="56"/>
       <c r="H94" s="57"/>
-      <c r="I94" s="77"/>
-      <c r="J94" s="77"/>
-      <c r="K94" s="77"/>
-      <c r="L94" s="77"/>
-      <c r="M94" s="77"/>
-    </row>
-    <row r="95" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I94" s="70"/>
+      <c r="J94" s="70"/>
+      <c r="K94" s="70"/>
+      <c r="L94" s="70"/>
+      <c r="M94" s="70"/>
+    </row>
+    <row r="95" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="41"/>
       <c r="B95" s="39"/>
       <c r="C95" s="53"/>
@@ -3409,13 +3415,13 @@
       <c r="F95" s="56"/>
       <c r="G95" s="56"/>
       <c r="H95" s="57"/>
-      <c r="I95" s="77"/>
-      <c r="J95" s="77"/>
-      <c r="K95" s="77"/>
-      <c r="L95" s="77"/>
-      <c r="M95" s="77"/>
-    </row>
-    <row r="96" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I95" s="70"/>
+      <c r="J95" s="70"/>
+      <c r="K95" s="70"/>
+      <c r="L95" s="70"/>
+      <c r="M95" s="70"/>
+    </row>
+    <row r="96" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="41"/>
       <c r="B96" s="60"/>
       <c r="C96" s="53"/>
@@ -3424,13 +3430,13 @@
       <c r="F96" s="56"/>
       <c r="G96" s="56"/>
       <c r="H96" s="57"/>
-      <c r="I96" s="77"/>
-      <c r="J96" s="77"/>
-      <c r="K96" s="77"/>
-      <c r="L96" s="77"/>
-      <c r="M96" s="77"/>
-    </row>
-    <row r="97" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I96" s="70"/>
+      <c r="J96" s="70"/>
+      <c r="K96" s="70"/>
+      <c r="L96" s="70"/>
+      <c r="M96" s="70"/>
+    </row>
+    <row r="97" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="41"/>
       <c r="C97" s="58"/>
       <c r="D97" s="58"/>
@@ -3438,13 +3444,13 @@
       <c r="F97" s="54"/>
       <c r="G97" s="58"/>
       <c r="H97" s="59"/>
-      <c r="I97" s="77"/>
-      <c r="J97" s="77"/>
-      <c r="K97" s="77"/>
-      <c r="L97" s="77"/>
-      <c r="M97" s="77"/>
-    </row>
-    <row r="98" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I97" s="70"/>
+      <c r="J97" s="70"/>
+      <c r="K97" s="70"/>
+      <c r="L97" s="70"/>
+      <c r="M97" s="70"/>
+    </row>
+    <row r="98" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="41"/>
       <c r="C98" s="8"/>
       <c r="D98" s="11"/>
@@ -3452,13 +3458,13 @@
       <c r="F98" s="11"/>
       <c r="G98" s="11"/>
       <c r="H98" s="12"/>
-      <c r="I98" s="77"/>
-      <c r="J98" s="77"/>
-      <c r="K98" s="77"/>
-      <c r="L98" s="77"/>
-      <c r="M98" s="77"/>
-    </row>
-    <row r="99" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I98" s="70"/>
+      <c r="J98" s="70"/>
+      <c r="K98" s="70"/>
+      <c r="L98" s="70"/>
+      <c r="M98" s="70"/>
+    </row>
+    <row r="99" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="40" t="s">
         <v>27</v>
       </c>
@@ -3469,13 +3475,13 @@
       <c r="F99" s="18"/>
       <c r="G99" s="19"/>
       <c r="H99" s="12"/>
-      <c r="I99" s="77"/>
-      <c r="J99" s="77"/>
-      <c r="K99" s="77"/>
-      <c r="L99" s="77"/>
-      <c r="M99" s="77"/>
-    </row>
-    <row r="100" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I99" s="70"/>
+      <c r="J99" s="70"/>
+      <c r="K99" s="70"/>
+      <c r="L99" s="70"/>
+      <c r="M99" s="70"/>
+    </row>
+    <row r="100" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="41"/>
       <c r="B100" s="15" t="s">
         <v>16</v>
@@ -3485,16 +3491,16 @@
       <c r="E100" s="11"/>
       <c r="F100" s="11"/>
       <c r="G100" s="11"/>
-      <c r="H100" s="78"/>
-      <c r="I100" s="77"/>
-      <c r="J100" s="77"/>
-      <c r="K100" s="77"/>
-      <c r="L100" s="77"/>
-      <c r="M100" s="77"/>
-    </row>
-    <row r="101" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H100" s="71"/>
+      <c r="I100" s="70"/>
+      <c r="J100" s="70"/>
+      <c r="K100" s="70"/>
+      <c r="L100" s="70"/>
+      <c r="M100" s="70"/>
+    </row>
+    <row r="101" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="45"/>
-      <c r="B101" s="73" t="s">
+      <c r="B101" s="76" t="s">
         <v>17</v>
       </c>
       <c r="C101" s="8"/>
@@ -3503,43 +3509,43 @@
       <c r="F101" s="56"/>
       <c r="G101" s="56"/>
       <c r="H101" s="25"/>
-      <c r="I101" s="77"/>
-      <c r="J101" s="77"/>
-      <c r="K101" s="77"/>
-      <c r="L101" s="77"/>
-      <c r="M101" s="77"/>
-    </row>
-    <row r="102" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I101" s="70"/>
+      <c r="J101" s="70"/>
+      <c r="K101" s="70"/>
+      <c r="L101" s="70"/>
+      <c r="M101" s="70"/>
+    </row>
+    <row r="102" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="45"/>
-      <c r="B102" s="73"/>
+      <c r="B102" s="76"/>
       <c r="C102" s="8"/>
       <c r="D102" s="11"/>
       <c r="E102" s="56"/>
       <c r="F102" s="56"/>
       <c r="G102" s="56"/>
       <c r="H102" s="25"/>
-      <c r="I102" s="77"/>
-      <c r="J102" s="77"/>
-      <c r="K102" s="77"/>
-      <c r="L102" s="77"/>
-      <c r="M102" s="77"/>
-    </row>
-    <row r="103" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I102" s="70"/>
+      <c r="J102" s="70"/>
+      <c r="K102" s="70"/>
+      <c r="L102" s="70"/>
+      <c r="M102" s="70"/>
+    </row>
+    <row r="103" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="45"/>
-      <c r="B103" s="73"/>
+      <c r="B103" s="76"/>
       <c r="C103" s="8"/>
       <c r="D103" s="11"/>
       <c r="E103" s="56"/>
       <c r="F103" s="56"/>
       <c r="G103" s="56"/>
       <c r="H103" s="25"/>
-      <c r="I103" s="77"/>
-      <c r="J103" s="77"/>
-      <c r="K103" s="77"/>
-      <c r="L103" s="77"/>
-      <c r="M103" s="77"/>
-    </row>
-    <row r="104" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I103" s="70"/>
+      <c r="J103" s="70"/>
+      <c r="K103" s="70"/>
+      <c r="L103" s="70"/>
+      <c r="M103" s="70"/>
+    </row>
+    <row r="104" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="45"/>
       <c r="B104" s="43"/>
       <c r="C104" s="8"/>
@@ -3548,13 +3554,13 @@
       <c r="F104" s="56"/>
       <c r="G104" s="56"/>
       <c r="H104" s="25"/>
-      <c r="I104" s="77"/>
-      <c r="J104" s="77"/>
-      <c r="K104" s="77"/>
-      <c r="L104" s="77"/>
-      <c r="M104" s="77"/>
-    </row>
-    <row r="105" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I104" s="70"/>
+      <c r="J104" s="70"/>
+      <c r="K104" s="70"/>
+      <c r="L104" s="70"/>
+      <c r="M104" s="70"/>
+    </row>
+    <row r="105" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="45"/>
       <c r="B105" s="1" t="s">
         <v>18</v>
@@ -3565,26 +3571,26 @@
       <c r="F105" s="56"/>
       <c r="G105" s="56"/>
       <c r="H105" s="25"/>
-      <c r="I105" s="77"/>
-      <c r="J105" s="77"/>
-      <c r="K105" s="77"/>
-      <c r="L105" s="77"/>
-      <c r="M105" s="77"/>
-    </row>
-    <row r="106" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C106" s="77"/>
-      <c r="D106" s="77"/>
-      <c r="E106" s="77"/>
-      <c r="F106" s="77"/>
-      <c r="G106" s="69"/>
-      <c r="H106" s="68"/>
-      <c r="I106" s="77"/>
-      <c r="J106" s="77"/>
-      <c r="K106" s="77"/>
-      <c r="L106" s="77"/>
-      <c r="M106" s="77"/>
-    </row>
-    <row r="107" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I105" s="70"/>
+      <c r="J105" s="70"/>
+      <c r="K105" s="70"/>
+      <c r="L105" s="70"/>
+      <c r="M105" s="70"/>
+    </row>
+    <row r="106" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C106" s="70"/>
+      <c r="D106" s="70"/>
+      <c r="E106" s="70"/>
+      <c r="F106" s="70"/>
+      <c r="G106" s="66"/>
+      <c r="H106" s="65"/>
+      <c r="I106" s="70"/>
+      <c r="J106" s="70"/>
+      <c r="K106" s="70"/>
+      <c r="L106" s="70"/>
+      <c r="M106" s="70"/>
+    </row>
+    <row r="107" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2"/>
       <c r="B107" s="3"/>
       <c r="C107" s="17"/>
@@ -3593,13 +3599,13 @@
       <c r="F107" s="18"/>
       <c r="G107" s="19"/>
       <c r="H107" s="12"/>
-      <c r="I107" s="77"/>
-      <c r="J107" s="77"/>
-      <c r="K107" s="77"/>
-      <c r="L107" s="77"/>
-      <c r="M107" s="77"/>
-    </row>
-    <row r="108" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I107" s="70"/>
+      <c r="J107" s="70"/>
+      <c r="K107" s="70"/>
+      <c r="L107" s="70"/>
+      <c r="M107" s="70"/>
+    </row>
+    <row r="108" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="45"/>
       <c r="B108" s="48" t="s">
         <v>19</v>
@@ -3609,16 +3615,16 @@
       <c r="E108" s="11"/>
       <c r="F108" s="11"/>
       <c r="G108" s="11"/>
-      <c r="H108" s="78"/>
-      <c r="I108" s="77"/>
-      <c r="J108" s="77"/>
-      <c r="K108" s="77"/>
-      <c r="L108" s="77"/>
-      <c r="M108" s="77"/>
-    </row>
-    <row r="109" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H108" s="71"/>
+      <c r="I108" s="70"/>
+      <c r="J108" s="70"/>
+      <c r="K108" s="70"/>
+      <c r="L108" s="70"/>
+      <c r="M108" s="70"/>
+    </row>
+    <row r="109" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="45"/>
-      <c r="B109" s="73" t="s">
+      <c r="B109" s="76" t="s">
         <v>20</v>
       </c>
       <c r="C109" s="8"/>
@@ -3627,43 +3633,43 @@
       <c r="F109" s="56"/>
       <c r="G109" s="56"/>
       <c r="H109" s="25"/>
-      <c r="I109" s="77"/>
-      <c r="J109" s="77"/>
-      <c r="K109" s="77"/>
-      <c r="L109" s="77"/>
-      <c r="M109" s="77"/>
-    </row>
-    <row r="110" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I109" s="70"/>
+      <c r="J109" s="70"/>
+      <c r="K109" s="70"/>
+      <c r="L109" s="70"/>
+      <c r="M109" s="70"/>
+    </row>
+    <row r="110" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="45"/>
-      <c r="B110" s="73"/>
+      <c r="B110" s="76"/>
       <c r="C110" s="8"/>
       <c r="D110" s="11"/>
       <c r="E110" s="56"/>
       <c r="F110" s="56"/>
       <c r="G110" s="56"/>
       <c r="H110" s="25"/>
-      <c r="I110" s="77"/>
-      <c r="J110" s="77"/>
-      <c r="K110" s="77"/>
-      <c r="L110" s="77"/>
-      <c r="M110" s="77"/>
-    </row>
-    <row r="111" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I110" s="70"/>
+      <c r="J110" s="70"/>
+      <c r="K110" s="70"/>
+      <c r="L110" s="70"/>
+      <c r="M110" s="70"/>
+    </row>
+    <row r="111" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="45"/>
-      <c r="B111" s="73"/>
+      <c r="B111" s="76"/>
       <c r="C111" s="8"/>
       <c r="D111" s="11"/>
       <c r="E111" s="56"/>
       <c r="F111" s="56"/>
       <c r="G111" s="56"/>
       <c r="H111" s="25"/>
-      <c r="I111" s="77"/>
-      <c r="J111" s="77"/>
-      <c r="K111" s="77"/>
-      <c r="L111" s="77"/>
-      <c r="M111" s="77"/>
-    </row>
-    <row r="112" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I111" s="70"/>
+      <c r="J111" s="70"/>
+      <c r="K111" s="70"/>
+      <c r="L111" s="70"/>
+      <c r="M111" s="70"/>
+    </row>
+    <row r="112" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="45"/>
       <c r="B112" s="49"/>
       <c r="C112" s="8"/>
@@ -3672,13 +3678,13 @@
       <c r="F112" s="56"/>
       <c r="G112" s="56"/>
       <c r="H112" s="25"/>
-      <c r="I112" s="77"/>
-      <c r="J112" s="77"/>
-      <c r="K112" s="77"/>
-      <c r="L112" s="77"/>
-      <c r="M112" s="77"/>
-    </row>
-    <row r="113" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I112" s="70"/>
+      <c r="J112" s="70"/>
+      <c r="K112" s="70"/>
+      <c r="L112" s="70"/>
+      <c r="M112" s="70"/>
+    </row>
+    <row r="113" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="45"/>
       <c r="B113" s="1" t="s">
         <v>29</v>
@@ -3689,26 +3695,26 @@
       <c r="F113" s="56"/>
       <c r="G113" s="56"/>
       <c r="H113" s="25"/>
-      <c r="I113" s="77"/>
-      <c r="J113" s="77"/>
-      <c r="K113" s="77"/>
-      <c r="L113" s="77"/>
-      <c r="M113" s="77"/>
-    </row>
-    <row r="114" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C114" s="77"/>
-      <c r="D114" s="77"/>
-      <c r="E114" s="77"/>
-      <c r="F114" s="77"/>
-      <c r="G114" s="69"/>
-      <c r="H114" s="68"/>
-      <c r="I114" s="77"/>
-      <c r="J114" s="77"/>
-      <c r="K114" s="77"/>
-      <c r="L114" s="77"/>
-      <c r="M114" s="77"/>
-    </row>
-    <row r="115" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I113" s="70"/>
+      <c r="J113" s="70"/>
+      <c r="K113" s="70"/>
+      <c r="L113" s="70"/>
+      <c r="M113" s="70"/>
+    </row>
+    <row r="114" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C114" s="70"/>
+      <c r="D114" s="70"/>
+      <c r="E114" s="70"/>
+      <c r="F114" s="70"/>
+      <c r="G114" s="66"/>
+      <c r="H114" s="65"/>
+      <c r="I114" s="70"/>
+      <c r="J114" s="70"/>
+      <c r="K114" s="70"/>
+      <c r="L114" s="70"/>
+      <c r="M114" s="70"/>
+    </row>
+    <row r="115" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="44" t="s">
         <v>21</v>
       </c>
@@ -3719,15 +3725,15 @@
       <c r="F115" s="18"/>
       <c r="G115" s="19"/>
       <c r="H115" s="12"/>
-      <c r="I115" s="77"/>
-      <c r="J115" s="77"/>
-      <c r="K115" s="77"/>
-      <c r="L115" s="77"/>
-      <c r="M115" s="77"/>
-    </row>
-    <row r="116" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I115" s="70"/>
+      <c r="J115" s="70"/>
+      <c r="K115" s="70"/>
+      <c r="L115" s="70"/>
+      <c r="M115" s="70"/>
+    </row>
+    <row r="116" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="45"/>
-      <c r="B116" s="76" t="s">
+      <c r="B116" s="69" t="s">
         <v>22</v>
       </c>
       <c r="C116" s="8"/>
@@ -3735,31 +3741,31 @@
       <c r="E116" s="11"/>
       <c r="F116" s="11"/>
       <c r="G116" s="11"/>
-      <c r="H116" s="78"/>
-      <c r="I116" s="77"/>
-      <c r="J116" s="77"/>
-      <c r="K116" s="77"/>
-      <c r="L116" s="77"/>
-      <c r="M116" s="77"/>
-    </row>
-    <row r="117" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H116" s="71"/>
+      <c r="I116" s="70"/>
+      <c r="J116" s="70"/>
+      <c r="K116" s="70"/>
+      <c r="L116" s="70"/>
+      <c r="M116" s="70"/>
+    </row>
+    <row r="117" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="45"/>
-      <c r="B117" s="76"/>
+      <c r="B117" s="69"/>
       <c r="C117" s="8"/>
       <c r="D117" s="11"/>
       <c r="E117" s="56"/>
       <c r="F117" s="56"/>
       <c r="G117" s="56"/>
       <c r="H117" s="25"/>
-      <c r="I117" s="77"/>
-      <c r="J117" s="77"/>
-      <c r="K117" s="77"/>
-      <c r="L117" s="77"/>
-      <c r="M117" s="77"/>
-    </row>
-    <row r="118" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I117" s="70"/>
+      <c r="J117" s="70"/>
+      <c r="K117" s="70"/>
+      <c r="L117" s="70"/>
+      <c r="M117" s="70"/>
+    </row>
+    <row r="118" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="45"/>
-      <c r="B118" s="73" t="s">
+      <c r="B118" s="76" t="s">
         <v>23</v>
       </c>
       <c r="C118" s="8"/>
@@ -3768,43 +3774,43 @@
       <c r="F118" s="56"/>
       <c r="G118" s="56"/>
       <c r="H118" s="25"/>
-      <c r="I118" s="77"/>
-      <c r="J118" s="77"/>
-      <c r="K118" s="77"/>
-      <c r="L118" s="77"/>
-      <c r="M118" s="77"/>
-    </row>
-    <row r="119" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I118" s="70"/>
+      <c r="J118" s="70"/>
+      <c r="K118" s="70"/>
+      <c r="L118" s="70"/>
+      <c r="M118" s="70"/>
+    </row>
+    <row r="119" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="45"/>
-      <c r="B119" s="73"/>
+      <c r="B119" s="76"/>
       <c r="C119" s="8"/>
       <c r="D119" s="11"/>
       <c r="E119" s="56"/>
       <c r="F119" s="56"/>
       <c r="G119" s="56"/>
       <c r="H119" s="25"/>
-      <c r="I119" s="77"/>
-      <c r="J119" s="77"/>
-      <c r="K119" s="77"/>
-      <c r="L119" s="77"/>
-      <c r="M119" s="77"/>
-    </row>
-    <row r="120" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I119" s="70"/>
+      <c r="J119" s="70"/>
+      <c r="K119" s="70"/>
+      <c r="L119" s="70"/>
+      <c r="M119" s="70"/>
+    </row>
+    <row r="120" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="45"/>
-      <c r="B120" s="73"/>
+      <c r="B120" s="76"/>
       <c r="C120" s="8"/>
       <c r="D120" s="11"/>
       <c r="E120" s="56"/>
       <c r="F120" s="56"/>
       <c r="G120" s="56"/>
       <c r="H120" s="25"/>
-      <c r="I120" s="77"/>
-      <c r="J120" s="77"/>
-      <c r="K120" s="77"/>
-      <c r="L120" s="77"/>
-      <c r="M120" s="77"/>
-    </row>
-    <row r="121" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I120" s="70"/>
+      <c r="J120" s="70"/>
+      <c r="K120" s="70"/>
+      <c r="L120" s="70"/>
+      <c r="M120" s="70"/>
+    </row>
+    <row r="121" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="45"/>
       <c r="B121" s="1" t="s">
         <v>24</v>
@@ -3815,26 +3821,26 @@
       <c r="F121" s="56"/>
       <c r="G121" s="56"/>
       <c r="H121" s="25"/>
-      <c r="I121" s="77"/>
-      <c r="J121" s="77"/>
-      <c r="K121" s="77"/>
-      <c r="L121" s="77"/>
-      <c r="M121" s="77"/>
-    </row>
-    <row r="122" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C122" s="77"/>
-      <c r="D122" s="77"/>
-      <c r="E122" s="77"/>
-      <c r="F122" s="77"/>
+      <c r="I121" s="70"/>
+      <c r="J121" s="70"/>
+      <c r="K121" s="70"/>
+      <c r="L121" s="70"/>
+      <c r="M121" s="70"/>
+    </row>
+    <row r="122" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C122" s="70"/>
+      <c r="D122" s="70"/>
+      <c r="E122" s="70"/>
+      <c r="F122" s="70"/>
       <c r="G122" s="11"/>
       <c r="H122" s="12"/>
-      <c r="I122" s="77"/>
-      <c r="J122" s="77"/>
-      <c r="K122" s="77"/>
-      <c r="L122" s="77"/>
-      <c r="M122" s="77"/>
-    </row>
-    <row r="123" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I122" s="70"/>
+      <c r="J122" s="70"/>
+      <c r="K122" s="70"/>
+      <c r="L122" s="70"/>
+      <c r="M122" s="70"/>
+    </row>
+    <row r="123" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="45"/>
       <c r="B123" s="10"/>
       <c r="C123" s="17"/>
@@ -3843,13 +3849,13 @@
       <c r="F123" s="18"/>
       <c r="G123" s="19"/>
       <c r="H123" s="12"/>
-      <c r="I123" s="77"/>
-      <c r="J123" s="77"/>
-      <c r="K123" s="77"/>
-      <c r="L123" s="77"/>
-      <c r="M123" s="77"/>
-    </row>
-    <row r="124" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I123" s="70"/>
+      <c r="J123" s="70"/>
+      <c r="K123" s="70"/>
+      <c r="L123" s="70"/>
+      <c r="M123" s="70"/>
+    </row>
+    <row r="124" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="45"/>
       <c r="B124" s="13" t="s">
         <v>66</v>
@@ -3859,16 +3865,16 @@
       <c r="E124" s="11"/>
       <c r="F124" s="11"/>
       <c r="G124" s="11"/>
-      <c r="H124" s="78"/>
-      <c r="I124" s="77"/>
-      <c r="J124" s="77"/>
-      <c r="K124" s="77"/>
-      <c r="L124" s="77"/>
-      <c r="M124" s="77"/>
-    </row>
-    <row r="125" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H124" s="71"/>
+      <c r="I124" s="70"/>
+      <c r="J124" s="70"/>
+      <c r="K124" s="70"/>
+      <c r="L124" s="70"/>
+      <c r="M124" s="70"/>
+    </row>
+    <row r="125" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="45"/>
-      <c r="B125" s="73" t="s">
+      <c r="B125" s="76" t="s">
         <v>28</v>
       </c>
       <c r="C125" s="8"/>
@@ -3877,43 +3883,43 @@
       <c r="F125" s="56"/>
       <c r="G125" s="56"/>
       <c r="H125" s="25"/>
-      <c r="I125" s="77"/>
-      <c r="J125" s="77"/>
-      <c r="K125" s="77"/>
-      <c r="L125" s="77"/>
-      <c r="M125" s="77"/>
-    </row>
-    <row r="126" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I125" s="70"/>
+      <c r="J125" s="70"/>
+      <c r="K125" s="70"/>
+      <c r="L125" s="70"/>
+      <c r="M125" s="70"/>
+    </row>
+    <row r="126" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="45"/>
-      <c r="B126" s="73"/>
+      <c r="B126" s="76"/>
       <c r="C126" s="8"/>
       <c r="D126" s="11"/>
       <c r="E126" s="56"/>
       <c r="F126" s="56"/>
       <c r="G126" s="56"/>
       <c r="H126" s="25"/>
-      <c r="I126" s="77"/>
-      <c r="J126" s="77"/>
-      <c r="K126" s="77"/>
-      <c r="L126" s="77"/>
-      <c r="M126" s="77"/>
-    </row>
-    <row r="127" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I126" s="70"/>
+      <c r="J126" s="70"/>
+      <c r="K126" s="70"/>
+      <c r="L126" s="70"/>
+      <c r="M126" s="70"/>
+    </row>
+    <row r="127" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="45"/>
-      <c r="B127" s="73"/>
+      <c r="B127" s="76"/>
       <c r="C127" s="8"/>
       <c r="D127" s="11"/>
       <c r="E127" s="56"/>
       <c r="F127" s="56"/>
       <c r="G127" s="56"/>
       <c r="H127" s="25"/>
-      <c r="I127" s="77"/>
-      <c r="J127" s="77"/>
-      <c r="K127" s="77"/>
-      <c r="L127" s="77"/>
-      <c r="M127" s="77"/>
-    </row>
-    <row r="128" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I127" s="70"/>
+      <c r="J127" s="70"/>
+      <c r="K127" s="70"/>
+      <c r="L127" s="70"/>
+      <c r="M127" s="70"/>
+    </row>
+    <row r="128" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="45"/>
       <c r="B128" s="43"/>
       <c r="C128" s="8"/>
@@ -3922,13 +3928,13 @@
       <c r="F128" s="56"/>
       <c r="G128" s="56"/>
       <c r="H128" s="25"/>
-      <c r="I128" s="77"/>
-      <c r="J128" s="77"/>
-      <c r="K128" s="77"/>
-      <c r="L128" s="77"/>
-      <c r="M128" s="77"/>
-    </row>
-    <row r="129" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I128" s="70"/>
+      <c r="J128" s="70"/>
+      <c r="K128" s="70"/>
+      <c r="L128" s="70"/>
+      <c r="M128" s="70"/>
+    </row>
+    <row r="129" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="45"/>
       <c r="B129" s="1" t="s">
         <v>24</v>
@@ -3939,26 +3945,26 @@
       <c r="F129" s="56"/>
       <c r="G129" s="56"/>
       <c r="H129" s="25"/>
-      <c r="I129" s="77"/>
-      <c r="J129" s="77"/>
-      <c r="K129" s="77"/>
-      <c r="L129" s="77"/>
-      <c r="M129" s="77"/>
-    </row>
-    <row r="130" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C130" s="77"/>
-      <c r="D130" s="77"/>
-      <c r="E130" s="77"/>
-      <c r="F130" s="77"/>
+      <c r="I129" s="70"/>
+      <c r="J129" s="70"/>
+      <c r="K129" s="70"/>
+      <c r="L129" s="70"/>
+      <c r="M129" s="70"/>
+    </row>
+    <row r="130" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C130" s="70"/>
+      <c r="D130" s="70"/>
+      <c r="E130" s="70"/>
+      <c r="F130" s="70"/>
       <c r="G130" s="19"/>
       <c r="H130" s="20"/>
-      <c r="I130" s="77"/>
-      <c r="J130" s="77"/>
-      <c r="K130" s="77"/>
-      <c r="L130" s="77"/>
-      <c r="M130" s="77"/>
-    </row>
-    <row r="131" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I130" s="70"/>
+      <c r="J130" s="70"/>
+      <c r="K130" s="70"/>
+      <c r="L130" s="70"/>
+      <c r="M130" s="70"/>
+    </row>
+    <row r="131" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="47" t="s">
         <v>52</v>
       </c>
@@ -3969,13 +3975,13 @@
       <c r="F131" s="18"/>
       <c r="G131" s="19"/>
       <c r="H131" s="12"/>
-      <c r="I131" s="77"/>
-      <c r="J131" s="77"/>
-      <c r="K131" s="77"/>
-      <c r="L131" s="77"/>
-      <c r="M131" s="77"/>
-    </row>
-    <row r="132" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I131" s="70"/>
+      <c r="J131" s="70"/>
+      <c r="K131" s="70"/>
+      <c r="L131" s="70"/>
+      <c r="M131" s="70"/>
+    </row>
+    <row r="132" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="45"/>
       <c r="B132" s="13" t="s">
         <v>34</v>
@@ -3985,61 +3991,61 @@
       <c r="E132" s="11"/>
       <c r="F132" s="11"/>
       <c r="G132" s="11"/>
-      <c r="H132" s="78"/>
-      <c r="I132" s="77"/>
-      <c r="J132" s="77"/>
-      <c r="K132" s="77"/>
-      <c r="L132" s="77"/>
-      <c r="M132" s="77"/>
-    </row>
-    <row r="133" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H132" s="71"/>
+      <c r="I132" s="70"/>
+      <c r="J132" s="70"/>
+      <c r="K132" s="70"/>
+      <c r="L132" s="70"/>
+      <c r="M132" s="70"/>
+    </row>
+    <row r="133" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="42"/>
-      <c r="B133" s="73" t="s">
+      <c r="B133" s="76" t="s">
         <v>53</v>
       </c>
       <c r="C133" s="8"/>
-      <c r="D133" s="77"/>
+      <c r="D133" s="70"/>
       <c r="E133" s="56"/>
       <c r="F133" s="56"/>
       <c r="G133" s="56"/>
-      <c r="H133" s="79"/>
-      <c r="I133" s="77"/>
-      <c r="J133" s="77"/>
-      <c r="K133" s="77"/>
-      <c r="L133" s="77"/>
-      <c r="M133" s="77"/>
-    </row>
-    <row r="134" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H133" s="72"/>
+      <c r="I133" s="70"/>
+      <c r="J133" s="70"/>
+      <c r="K133" s="70"/>
+      <c r="L133" s="70"/>
+      <c r="M133" s="70"/>
+    </row>
+    <row r="134" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="42"/>
-      <c r="B134" s="73"/>
+      <c r="B134" s="76"/>
       <c r="C134" s="8"/>
       <c r="D134" s="11"/>
       <c r="E134" s="56"/>
       <c r="F134" s="56"/>
       <c r="G134" s="56"/>
       <c r="H134" s="25"/>
-      <c r="I134" s="77"/>
-      <c r="J134" s="77"/>
-      <c r="K134" s="77"/>
-      <c r="L134" s="77"/>
-      <c r="M134" s="77"/>
-    </row>
-    <row r="135" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I134" s="70"/>
+      <c r="J134" s="70"/>
+      <c r="K134" s="70"/>
+      <c r="L134" s="70"/>
+      <c r="M134" s="70"/>
+    </row>
+    <row r="135" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="42"/>
-      <c r="B135" s="73"/>
+      <c r="B135" s="76"/>
       <c r="C135" s="8"/>
       <c r="D135" s="11"/>
       <c r="E135" s="56"/>
       <c r="F135" s="56"/>
       <c r="G135" s="56"/>
       <c r="H135" s="25"/>
-      <c r="I135" s="77"/>
-      <c r="J135" s="77"/>
-      <c r="K135" s="77"/>
-      <c r="L135" s="77"/>
-      <c r="M135" s="77"/>
-    </row>
-    <row r="136" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I135" s="70"/>
+      <c r="J135" s="70"/>
+      <c r="K135" s="70"/>
+      <c r="L135" s="70"/>
+      <c r="M135" s="70"/>
+    </row>
+    <row r="136" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="42"/>
       <c r="B136" s="43"/>
       <c r="C136" s="8"/>
@@ -4048,13 +4054,13 @@
       <c r="F136" s="56"/>
       <c r="G136" s="56"/>
       <c r="H136" s="25"/>
-      <c r="I136" s="77"/>
-      <c r="J136" s="77"/>
-      <c r="K136" s="77"/>
-      <c r="L136" s="77"/>
-      <c r="M136" s="77"/>
-    </row>
-    <row r="137" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I136" s="70"/>
+      <c r="J136" s="70"/>
+      <c r="K136" s="70"/>
+      <c r="L136" s="70"/>
+      <c r="M136" s="70"/>
+    </row>
+    <row r="137" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="42"/>
       <c r="B137" s="1" t="s">
         <v>54</v>
@@ -4065,26 +4071,26 @@
       <c r="F137" s="56"/>
       <c r="G137" s="56"/>
       <c r="H137" s="25"/>
-      <c r="I137" s="77"/>
-      <c r="J137" s="77"/>
-      <c r="K137" s="77"/>
-      <c r="L137" s="77"/>
-      <c r="M137" s="77"/>
-    </row>
-    <row r="138" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C138" s="77"/>
-      <c r="D138" s="77"/>
-      <c r="E138" s="77"/>
-      <c r="F138" s="77"/>
+      <c r="I137" s="70"/>
+      <c r="J137" s="70"/>
+      <c r="K137" s="70"/>
+      <c r="L137" s="70"/>
+      <c r="M137" s="70"/>
+    </row>
+    <row r="138" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C138" s="70"/>
+      <c r="D138" s="70"/>
+      <c r="E138" s="70"/>
+      <c r="F138" s="70"/>
       <c r="G138" s="11"/>
       <c r="H138" s="20"/>
-      <c r="I138" s="77"/>
-      <c r="J138" s="77"/>
-      <c r="K138" s="77"/>
-      <c r="L138" s="77"/>
-      <c r="M138" s="77"/>
-    </row>
-    <row r="139" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I138" s="70"/>
+      <c r="J138" s="70"/>
+      <c r="K138" s="70"/>
+      <c r="L138" s="70"/>
+      <c r="M138" s="70"/>
+    </row>
+    <row r="139" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="44" t="s">
         <v>55</v>
       </c>
@@ -4095,13 +4101,13 @@
       <c r="F139" s="18"/>
       <c r="G139" s="19"/>
       <c r="H139" s="12"/>
-      <c r="I139" s="77"/>
-      <c r="J139" s="77"/>
-      <c r="K139" s="77"/>
-      <c r="L139" s="77"/>
-      <c r="M139" s="77"/>
-    </row>
-    <row r="140" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I139" s="70"/>
+      <c r="J139" s="70"/>
+      <c r="K139" s="70"/>
+      <c r="L139" s="70"/>
+      <c r="M139" s="70"/>
+    </row>
+    <row r="140" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="42"/>
       <c r="B140" s="48" t="s">
         <v>56</v>
@@ -4111,76 +4117,76 @@
       <c r="E140" s="11"/>
       <c r="F140" s="11"/>
       <c r="G140" s="11"/>
-      <c r="H140" s="78"/>
-      <c r="I140" s="77"/>
-      <c r="J140" s="77"/>
-      <c r="K140" s="77"/>
-      <c r="L140" s="77"/>
-      <c r="M140" s="77"/>
-    </row>
-    <row r="141" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H140" s="71"/>
+      <c r="I140" s="70"/>
+      <c r="J140" s="70"/>
+      <c r="K140" s="70"/>
+      <c r="L140" s="70"/>
+      <c r="M140" s="70"/>
+    </row>
+    <row r="141" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="42"/>
-      <c r="B141" s="73" t="s">
+      <c r="B141" s="76" t="s">
         <v>57</v>
       </c>
       <c r="C141" s="8"/>
-      <c r="D141" s="77"/>
+      <c r="D141" s="70"/>
       <c r="E141" s="56"/>
       <c r="F141" s="56"/>
       <c r="G141" s="56"/>
-      <c r="H141" s="79"/>
-      <c r="I141" s="77"/>
-      <c r="J141" s="77"/>
-      <c r="K141" s="77"/>
-      <c r="L141" s="77"/>
-      <c r="M141" s="77"/>
-    </row>
-    <row r="142" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H141" s="72"/>
+      <c r="I141" s="70"/>
+      <c r="J141" s="70"/>
+      <c r="K141" s="70"/>
+      <c r="L141" s="70"/>
+      <c r="M141" s="70"/>
+    </row>
+    <row r="142" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="42"/>
-      <c r="B142" s="73"/>
+      <c r="B142" s="76"/>
       <c r="C142" s="8"/>
       <c r="D142" s="11"/>
       <c r="E142" s="56"/>
       <c r="F142" s="56"/>
       <c r="G142" s="56"/>
       <c r="H142" s="25"/>
-      <c r="I142" s="77"/>
-      <c r="J142" s="77"/>
-      <c r="K142" s="77"/>
-      <c r="L142" s="77"/>
-      <c r="M142" s="77"/>
-    </row>
-    <row r="143" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I142" s="70"/>
+      <c r="J142" s="70"/>
+      <c r="K142" s="70"/>
+      <c r="L142" s="70"/>
+      <c r="M142" s="70"/>
+    </row>
+    <row r="143" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="42"/>
-      <c r="B143" s="73"/>
+      <c r="B143" s="76"/>
       <c r="C143" s="8"/>
       <c r="D143" s="11"/>
       <c r="E143" s="56"/>
       <c r="F143" s="56"/>
       <c r="G143" s="56"/>
       <c r="H143" s="25"/>
-      <c r="I143" s="77"/>
-      <c r="J143" s="77"/>
-      <c r="K143" s="77"/>
-      <c r="L143" s="77"/>
-      <c r="M143" s="77"/>
-    </row>
-    <row r="144" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I143" s="70"/>
+      <c r="J143" s="70"/>
+      <c r="K143" s="70"/>
+      <c r="L143" s="70"/>
+      <c r="M143" s="70"/>
+    </row>
+    <row r="144" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="42"/>
-      <c r="B144" s="73"/>
+      <c r="B144" s="76"/>
       <c r="C144" s="8"/>
       <c r="D144" s="11"/>
       <c r="E144" s="56"/>
       <c r="F144" s="56"/>
       <c r="G144" s="56"/>
       <c r="H144" s="25"/>
-      <c r="I144" s="77"/>
-      <c r="J144" s="77"/>
-      <c r="K144" s="77"/>
-      <c r="L144" s="77"/>
-      <c r="M144" s="77"/>
-    </row>
-    <row r="145" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I144" s="70"/>
+      <c r="J144" s="70"/>
+      <c r="K144" s="70"/>
+      <c r="L144" s="70"/>
+      <c r="M144" s="70"/>
+    </row>
+    <row r="145" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="42"/>
       <c r="B145" s="4" t="s">
         <v>58</v>
@@ -4191,56 +4197,56 @@
       <c r="F145" s="56"/>
       <c r="G145" s="56"/>
       <c r="H145" s="25"/>
-      <c r="I145" s="77"/>
-      <c r="J145" s="77"/>
-      <c r="K145" s="77"/>
-      <c r="L145" s="77"/>
-      <c r="M145" s="77"/>
-    </row>
-    <row r="146" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C146" s="77"/>
-      <c r="D146" s="77"/>
-      <c r="E146" s="77"/>
-      <c r="F146" s="77"/>
-      <c r="G146" s="77"/>
-      <c r="H146" s="77"/>
-      <c r="I146" s="77"/>
-      <c r="J146" s="77"/>
-      <c r="K146" s="77"/>
-      <c r="L146" s="77"/>
-      <c r="M146" s="77"/>
-    </row>
-    <row r="147" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C147" s="77"/>
-      <c r="D147" s="77"/>
-      <c r="E147" s="77"/>
-      <c r="F147" s="77"/>
-      <c r="G147" s="77"/>
-      <c r="H147" s="68"/>
-      <c r="I147" s="77"/>
-      <c r="J147" s="77"/>
-      <c r="K147" s="77"/>
-      <c r="L147" s="77"/>
-      <c r="M147" s="77"/>
-    </row>
-    <row r="148" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I145" s="70"/>
+      <c r="J145" s="70"/>
+      <c r="K145" s="70"/>
+      <c r="L145" s="70"/>
+      <c r="M145" s="70"/>
+    </row>
+    <row r="146" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C146" s="70"/>
+      <c r="D146" s="70"/>
+      <c r="E146" s="70"/>
+      <c r="F146" s="70"/>
+      <c r="G146" s="70"/>
+      <c r="H146" s="70"/>
+      <c r="I146" s="70"/>
+      <c r="J146" s="70"/>
+      <c r="K146" s="70"/>
+      <c r="L146" s="70"/>
+      <c r="M146" s="70"/>
+    </row>
+    <row r="147" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C147" s="70"/>
+      <c r="D147" s="70"/>
+      <c r="E147" s="70"/>
+      <c r="F147" s="70"/>
+      <c r="G147" s="70"/>
+      <c r="H147" s="65"/>
+      <c r="I147" s="70"/>
+      <c r="J147" s="70"/>
+      <c r="K147" s="70"/>
+      <c r="L147" s="70"/>
+      <c r="M147" s="70"/>
+    </row>
+    <row r="148" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="44" t="s">
         <v>59</v>
       </c>
       <c r="B148" s="44"/>
-      <c r="C148" s="69"/>
-      <c r="D148" s="69"/>
-      <c r="E148" s="69"/>
-      <c r="F148" s="69"/>
-      <c r="G148" s="77"/>
-      <c r="H148" s="68"/>
-      <c r="I148" s="77"/>
-      <c r="J148" s="77"/>
-      <c r="K148" s="77"/>
-      <c r="L148" s="77"/>
-      <c r="M148" s="77"/>
-    </row>
-    <row r="149" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C148" s="66"/>
+      <c r="D148" s="66"/>
+      <c r="E148" s="66"/>
+      <c r="F148" s="66"/>
+      <c r="G148" s="70"/>
+      <c r="H148" s="65"/>
+      <c r="I148" s="70"/>
+      <c r="J148" s="70"/>
+      <c r="K148" s="70"/>
+      <c r="L148" s="70"/>
+      <c r="M148" s="70"/>
+    </row>
+    <row r="149" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="45"/>
       <c r="B149" s="46" t="s">
         <v>60</v>
@@ -4250,14 +4256,14 @@
       <c r="E149" s="18"/>
       <c r="F149" s="18"/>
       <c r="G149" s="19"/>
-      <c r="H149" s="68"/>
-      <c r="I149" s="77"/>
-      <c r="J149" s="77"/>
-      <c r="K149" s="77"/>
-      <c r="L149" s="77"/>
-      <c r="M149" s="77"/>
-    </row>
-    <row r="150" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H149" s="65"/>
+      <c r="I149" s="70"/>
+      <c r="J149" s="70"/>
+      <c r="K149" s="70"/>
+      <c r="L149" s="70"/>
+      <c r="M149" s="70"/>
+    </row>
+    <row r="150" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="45"/>
       <c r="B150" s="46"/>
       <c r="C150" s="8"/>
@@ -4265,16 +4271,16 @@
       <c r="E150" s="11"/>
       <c r="F150" s="11"/>
       <c r="G150" s="11"/>
-      <c r="H150" s="78"/>
-      <c r="I150" s="77"/>
-      <c r="J150" s="77"/>
-      <c r="K150" s="77"/>
-      <c r="L150" s="77"/>
-      <c r="M150" s="77"/>
-    </row>
-    <row r="151" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H150" s="71"/>
+      <c r="I150" s="70"/>
+      <c r="J150" s="70"/>
+      <c r="K150" s="70"/>
+      <c r="L150" s="70"/>
+      <c r="M150" s="70"/>
+    </row>
+    <row r="151" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="45"/>
-      <c r="B151" s="73" t="s">
+      <c r="B151" s="76" t="s">
         <v>61</v>
       </c>
       <c r="C151" s="8"/>
@@ -4282,44 +4288,44 @@
       <c r="E151" s="56"/>
       <c r="F151" s="56"/>
       <c r="G151" s="56"/>
-      <c r="H151" s="79"/>
-      <c r="I151" s="77"/>
-      <c r="J151" s="77"/>
-      <c r="K151" s="77"/>
-      <c r="L151" s="77"/>
-      <c r="M151" s="77"/>
-    </row>
-    <row r="152" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H151" s="72"/>
+      <c r="I151" s="70"/>
+      <c r="J151" s="70"/>
+      <c r="K151" s="70"/>
+      <c r="L151" s="70"/>
+      <c r="M151" s="70"/>
+    </row>
+    <row r="152" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="45"/>
-      <c r="B152" s="73"/>
+      <c r="B152" s="76"/>
       <c r="C152" s="8"/>
       <c r="D152" s="54"/>
       <c r="E152" s="56"/>
       <c r="F152" s="56"/>
       <c r="G152" s="56"/>
       <c r="H152" s="25"/>
-      <c r="I152" s="77"/>
-      <c r="J152" s="77"/>
-      <c r="K152" s="77"/>
-      <c r="L152" s="77"/>
-      <c r="M152" s="77"/>
-    </row>
-    <row r="153" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I152" s="70"/>
+      <c r="J152" s="70"/>
+      <c r="K152" s="70"/>
+      <c r="L152" s="70"/>
+      <c r="M152" s="70"/>
+    </row>
+    <row r="153" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="45"/>
-      <c r="B153" s="73"/>
+      <c r="B153" s="76"/>
       <c r="C153" s="8"/>
       <c r="D153" s="54"/>
       <c r="E153" s="56"/>
       <c r="F153" s="56"/>
       <c r="G153" s="56"/>
       <c r="H153" s="25"/>
-      <c r="I153" s="77"/>
-      <c r="J153" s="77"/>
-      <c r="K153" s="77"/>
-      <c r="L153" s="77"/>
-      <c r="M153" s="77"/>
-    </row>
-    <row r="154" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I153" s="70"/>
+      <c r="J153" s="70"/>
+      <c r="K153" s="70"/>
+      <c r="L153" s="70"/>
+      <c r="M153" s="70"/>
+    </row>
+    <row r="154" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="45"/>
       <c r="B154" s="4" t="s">
         <v>62</v>
@@ -4330,42 +4336,42 @@
       <c r="F154" s="56"/>
       <c r="G154" s="56"/>
       <c r="H154" s="25"/>
-      <c r="I154" s="77"/>
-      <c r="J154" s="77"/>
-      <c r="K154" s="77"/>
-      <c r="L154" s="77"/>
-      <c r="M154" s="77"/>
-    </row>
-    <row r="155" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I154" s="70"/>
+      <c r="J154" s="70"/>
+      <c r="K154" s="70"/>
+      <c r="L154" s="70"/>
+      <c r="M154" s="70"/>
+    </row>
+    <row r="155" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C155" s="8"/>
-      <c r="D155" s="77"/>
+      <c r="D155" s="70"/>
       <c r="E155" s="56"/>
       <c r="F155" s="56"/>
       <c r="G155" s="56"/>
       <c r="H155" s="25"/>
-      <c r="I155" s="77"/>
-      <c r="J155" s="77"/>
-      <c r="K155" s="77"/>
-      <c r="L155" s="77"/>
-      <c r="M155" s="77"/>
-    </row>
-    <row r="156" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I155" s="70"/>
+      <c r="J155" s="70"/>
+      <c r="K155" s="70"/>
+      <c r="L155" s="70"/>
+      <c r="M155" s="70"/>
+    </row>
+    <row r="156" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="C156" s="77"/>
-      <c r="D156" s="77"/>
-      <c r="E156" s="77"/>
-      <c r="F156" s="77"/>
-      <c r="G156" s="77"/>
-      <c r="H156" s="77"/>
-      <c r="I156" s="77"/>
-      <c r="J156" s="77"/>
-      <c r="K156" s="77"/>
-      <c r="L156" s="77"/>
-      <c r="M156" s="77"/>
-    </row>
-    <row r="157" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C156" s="70"/>
+      <c r="D156" s="70"/>
+      <c r="E156" s="70"/>
+      <c r="F156" s="70"/>
+      <c r="G156" s="70"/>
+      <c r="H156" s="70"/>
+      <c r="I156" s="70"/>
+      <c r="J156" s="70"/>
+      <c r="K156" s="70"/>
+      <c r="L156" s="70"/>
+      <c r="M156" s="70"/>
+    </row>
+    <row r="157" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B157" s="62" t="s">
         <v>64</v>
       </c>
@@ -4374,15 +4380,15 @@
       <c r="E157" s="18"/>
       <c r="F157" s="18"/>
       <c r="G157" s="19"/>
-      <c r="H157" s="68"/>
-      <c r="I157" s="77"/>
-      <c r="J157" s="77"/>
-      <c r="K157" s="77"/>
-      <c r="L157" s="77"/>
-      <c r="M157" s="77"/>
-    </row>
-    <row r="158" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B158" s="64" t="s">
+      <c r="H157" s="65"/>
+      <c r="I157" s="70"/>
+      <c r="J157" s="70"/>
+      <c r="K157" s="70"/>
+      <c r="L157" s="70"/>
+      <c r="M157" s="70"/>
+    </row>
+    <row r="158" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B158" s="82" t="s">
         <v>65</v>
       </c>
       <c r="C158" s="8"/>
@@ -4390,42 +4396,42 @@
       <c r="E158" s="11"/>
       <c r="F158" s="11"/>
       <c r="G158" s="11"/>
-      <c r="H158" s="78"/>
-      <c r="I158" s="77"/>
-      <c r="J158" s="77"/>
-      <c r="K158" s="77"/>
-      <c r="L158" s="77"/>
-      <c r="M158" s="77"/>
-    </row>
-    <row r="159" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B159" s="64"/>
+      <c r="H158" s="71"/>
+      <c r="I158" s="70"/>
+      <c r="J158" s="70"/>
+      <c r="K158" s="70"/>
+      <c r="L158" s="70"/>
+      <c r="M158" s="70"/>
+    </row>
+    <row r="159" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B159" s="82"/>
       <c r="C159" s="8"/>
       <c r="D159" s="54"/>
       <c r="E159" s="56"/>
       <c r="F159" s="56"/>
       <c r="G159" s="56"/>
-      <c r="H159" s="79"/>
-      <c r="I159" s="77"/>
-      <c r="J159" s="77"/>
-      <c r="K159" s="77"/>
-      <c r="L159" s="77"/>
-      <c r="M159" s="77"/>
-    </row>
-    <row r="160" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B160" s="64"/>
+      <c r="H159" s="72"/>
+      <c r="I159" s="70"/>
+      <c r="J159" s="70"/>
+      <c r="K159" s="70"/>
+      <c r="L159" s="70"/>
+      <c r="M159" s="70"/>
+    </row>
+    <row r="160" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B160" s="82"/>
       <c r="C160" s="8"/>
       <c r="D160" s="54"/>
       <c r="E160" s="56"/>
       <c r="F160" s="56"/>
       <c r="G160" s="56"/>
       <c r="H160" s="25"/>
-      <c r="I160" s="77"/>
-      <c r="J160" s="77"/>
-      <c r="K160" s="77"/>
-      <c r="L160" s="77"/>
-      <c r="M160" s="77"/>
-    </row>
-    <row r="161" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I160" s="70"/>
+      <c r="J160" s="70"/>
+      <c r="K160" s="70"/>
+      <c r="L160" s="70"/>
+      <c r="M160" s="70"/>
+    </row>
+    <row r="161" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B161" s="4" t="s">
         <v>62</v>
       </c>
@@ -4435,982 +4441,992 @@
       <c r="F161" s="56"/>
       <c r="G161" s="56"/>
       <c r="H161" s="25"/>
-      <c r="I161" s="77"/>
-      <c r="J161" s="77"/>
-      <c r="K161" s="77"/>
-      <c r="L161" s="77"/>
-      <c r="M161" s="77"/>
-    </row>
-    <row r="162" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I161" s="70"/>
+      <c r="J161" s="70"/>
+      <c r="K161" s="70"/>
+      <c r="L161" s="70"/>
+      <c r="M161" s="70"/>
+    </row>
+    <row r="162" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C162" s="8"/>
       <c r="D162" s="54"/>
       <c r="E162" s="56"/>
       <c r="F162" s="56"/>
       <c r="G162" s="56"/>
       <c r="H162" s="25"/>
-      <c r="I162" s="77"/>
-      <c r="J162" s="77"/>
-      <c r="K162" s="77"/>
-      <c r="L162" s="77"/>
-      <c r="M162" s="77"/>
-    </row>
-    <row r="163" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I162" s="70"/>
+      <c r="J162" s="70"/>
+      <c r="K162" s="70"/>
+      <c r="L162" s="70"/>
+      <c r="M162" s="70"/>
+    </row>
+    <row r="163" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C163" s="8"/>
-      <c r="D163" s="77"/>
+      <c r="D163" s="70"/>
       <c r="E163" s="56"/>
       <c r="F163" s="56"/>
       <c r="G163" s="56"/>
       <c r="H163" s="25"/>
-      <c r="I163" s="77"/>
-      <c r="J163" s="77"/>
-      <c r="K163" s="77"/>
-      <c r="L163" s="77"/>
-      <c r="M163" s="77"/>
-    </row>
-    <row r="164" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I163" s="70"/>
+      <c r="J163" s="70"/>
+      <c r="K163" s="70"/>
+      <c r="L163" s="70"/>
+      <c r="M163" s="70"/>
+    </row>
+    <row r="164" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H164"/>
     </row>
-    <row r="165" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H165"/>
     </row>
-    <row r="166" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H166"/>
     </row>
-    <row r="167" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H167"/>
     </row>
-    <row r="168" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H168"/>
     </row>
-    <row r="169" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H169"/>
     </row>
-    <row r="170" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H170"/>
     </row>
-    <row r="171" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H171"/>
     </row>
-    <row r="172" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H172"/>
     </row>
-    <row r="173" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H173"/>
     </row>
-    <row r="174" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H174"/>
     </row>
-    <row r="175" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H175"/>
     </row>
-    <row r="176" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H176"/>
     </row>
-    <row r="177" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H177"/>
     </row>
-    <row r="178" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H178"/>
     </row>
-    <row r="179" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H179"/>
     </row>
-    <row r="180" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H180"/>
     </row>
-    <row r="181" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H181"/>
     </row>
-    <row r="182" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H182"/>
     </row>
-    <row r="183" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H183"/>
     </row>
-    <row r="184" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H184"/>
     </row>
-    <row r="185" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H185"/>
     </row>
-    <row r="186" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H186"/>
     </row>
-    <row r="187" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H187"/>
     </row>
-    <row r="188" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H188"/>
     </row>
-    <row r="189" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H189"/>
     </row>
-    <row r="190" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H190"/>
     </row>
-    <row r="191" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H191"/>
     </row>
-    <row r="192" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H192"/>
     </row>
-    <row r="193" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H193"/>
     </row>
-    <row r="194" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H194"/>
     </row>
-    <row r="195" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H195"/>
     </row>
-    <row r="196" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H196"/>
     </row>
-    <row r="197" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H197"/>
     </row>
-    <row r="198" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H198"/>
     </row>
-    <row r="199" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H199"/>
     </row>
-    <row r="200" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H200"/>
     </row>
-    <row r="201" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H201"/>
     </row>
-    <row r="202" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H202"/>
     </row>
-    <row r="203" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H203"/>
     </row>
-    <row r="204" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H204"/>
     </row>
-    <row r="205" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H205"/>
     </row>
-    <row r="206" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H206"/>
     </row>
-    <row r="207" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H207"/>
     </row>
-    <row r="208" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H208"/>
     </row>
-    <row r="209" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H209"/>
     </row>
-    <row r="210" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H210"/>
     </row>
-    <row r="211" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H211"/>
     </row>
-    <row r="212" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H212"/>
     </row>
-    <row r="213" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H213"/>
     </row>
-    <row r="214" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H214"/>
     </row>
-    <row r="215" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H215"/>
     </row>
-    <row r="216" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H216"/>
     </row>
-    <row r="217" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H217"/>
     </row>
-    <row r="218" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H218"/>
     </row>
-    <row r="219" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H219"/>
     </row>
-    <row r="220" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H220"/>
     </row>
-    <row r="221" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H221"/>
     </row>
-    <row r="222" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H222"/>
     </row>
-    <row r="223" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H223"/>
     </row>
-    <row r="224" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H224"/>
     </row>
-    <row r="225" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H225"/>
     </row>
-    <row r="226" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H226"/>
     </row>
-    <row r="227" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H227"/>
     </row>
-    <row r="228" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H228"/>
     </row>
-    <row r="229" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H229"/>
     </row>
-    <row r="230" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H230"/>
     </row>
-    <row r="231" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H231"/>
     </row>
-    <row r="232" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H232"/>
     </row>
-    <row r="233" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H233"/>
     </row>
-    <row r="234" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H234"/>
     </row>
-    <row r="235" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H235"/>
     </row>
-    <row r="236" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H236"/>
     </row>
-    <row r="237" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H237"/>
     </row>
-    <row r="238" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H238"/>
     </row>
-    <row r="239" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H239"/>
     </row>
-    <row r="240" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H240"/>
     </row>
-    <row r="241" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H241"/>
     </row>
-    <row r="242" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H242"/>
     </row>
-    <row r="243" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H243"/>
     </row>
-    <row r="244" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H244"/>
     </row>
-    <row r="245" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H245"/>
     </row>
-    <row r="246" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H246"/>
     </row>
-    <row r="247" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H247"/>
     </row>
-    <row r="248" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H248"/>
     </row>
-    <row r="249" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H249"/>
     </row>
-    <row r="250" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H250"/>
     </row>
-    <row r="251" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H251"/>
     </row>
-    <row r="252" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H252"/>
     </row>
-    <row r="253" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H253"/>
     </row>
-    <row r="254" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H254"/>
     </row>
-    <row r="255" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H255"/>
     </row>
-    <row r="256" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H256"/>
     </row>
-    <row r="257" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H257"/>
     </row>
-    <row r="258" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H258"/>
     </row>
-    <row r="259" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H259"/>
     </row>
-    <row r="260" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H260"/>
     </row>
-    <row r="261" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H261"/>
     </row>
-    <row r="262" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H262"/>
     </row>
-    <row r="263" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H263"/>
     </row>
-    <row r="264" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H264"/>
     </row>
-    <row r="265" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H265"/>
     </row>
-    <row r="266" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H266"/>
     </row>
-    <row r="267" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H267"/>
     </row>
-    <row r="268" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H268"/>
     </row>
-    <row r="269" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H269"/>
     </row>
-    <row r="270" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H270"/>
     </row>
-    <row r="271" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H271"/>
     </row>
-    <row r="272" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H272"/>
     </row>
-    <row r="273" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H273"/>
     </row>
-    <row r="274" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H274"/>
     </row>
-    <row r="275" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H275"/>
     </row>
-    <row r="276" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H276"/>
     </row>
-    <row r="277" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H277"/>
     </row>
-    <row r="278" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H278"/>
     </row>
-    <row r="279" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H279"/>
     </row>
-    <row r="280" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="8:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H280"/>
     </row>
-    <row r="281" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="281" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H281"/>
     </row>
-    <row r="282" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="282" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H282"/>
     </row>
-    <row r="283" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="283" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H283"/>
     </row>
-    <row r="284" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="284" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H284"/>
     </row>
-    <row r="285" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="285" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H285"/>
     </row>
-    <row r="286" spans="8:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="8:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H286"/>
     </row>
-    <row r="287" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H287"/>
     </row>
-    <row r="288" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="288" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H288"/>
     </row>
-    <row r="289" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="289" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H289"/>
     </row>
-    <row r="290" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="290" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H290"/>
     </row>
-    <row r="291" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="291" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H291"/>
     </row>
-    <row r="292" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="292" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H292"/>
     </row>
-    <row r="293" spans="8:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="8:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H293"/>
     </row>
-    <row r="294" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H294"/>
     </row>
-    <row r="295" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="295" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H295"/>
     </row>
-    <row r="296" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="296" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H296"/>
     </row>
-    <row r="297" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="297" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H297"/>
     </row>
-    <row r="298" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="298" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H298"/>
     </row>
-    <row r="299" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="299" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H299"/>
     </row>
-    <row r="300" spans="8:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="8:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H300"/>
     </row>
-    <row r="301" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H301"/>
     </row>
-    <row r="302" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="302" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H302"/>
     </row>
-    <row r="303" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="303" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H303"/>
     </row>
-    <row r="304" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="304" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H304"/>
     </row>
-    <row r="305" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="305" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H305"/>
     </row>
-    <row r="306" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="306" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H306"/>
     </row>
-    <row r="307" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="307" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H307"/>
     </row>
-    <row r="308" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="308" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H308"/>
     </row>
-    <row r="309" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="309" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H309"/>
     </row>
-    <row r="310" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="310" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H310"/>
     </row>
-    <row r="311" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="311" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H311"/>
     </row>
-    <row r="312" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="312" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H312"/>
     </row>
-    <row r="313" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="313" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H313"/>
     </row>
-    <row r="314" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="314" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H314"/>
     </row>
-    <row r="315" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="315" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H315"/>
     </row>
-    <row r="316" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="316" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H316"/>
     </row>
-    <row r="317" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="317" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H317"/>
     </row>
-    <row r="318" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="318" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H318"/>
     </row>
-    <row r="319" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="319" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H319"/>
     </row>
-    <row r="320" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="320" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H320"/>
     </row>
-    <row r="321" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="321" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H321"/>
     </row>
-    <row r="322" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="322" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H322"/>
     </row>
-    <row r="323" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="323" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H323"/>
     </row>
-    <row r="324" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="324" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H324"/>
     </row>
-    <row r="325" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="325" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H325"/>
     </row>
-    <row r="326" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="326" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H326"/>
     </row>
-    <row r="327" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="327" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H327"/>
     </row>
-    <row r="328" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="328" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H328"/>
     </row>
-    <row r="329" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="329" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H329"/>
     </row>
-    <row r="330" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="330" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H330"/>
     </row>
-    <row r="331" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="331" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H331"/>
     </row>
-    <row r="332" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="332" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H332"/>
     </row>
-    <row r="333" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="333" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H333"/>
     </row>
-    <row r="334" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="334" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H334"/>
     </row>
-    <row r="335" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="335" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H335"/>
     </row>
-    <row r="336" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="336" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H336"/>
     </row>
-    <row r="337" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="337" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H337"/>
     </row>
-    <row r="338" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="338" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H338"/>
     </row>
-    <row r="339" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="339" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H339"/>
     </row>
-    <row r="340" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="340" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H340"/>
     </row>
-    <row r="341" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="341" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H341"/>
     </row>
-    <row r="342" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="342" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H342"/>
     </row>
-    <row r="343" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="343" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H343"/>
     </row>
-    <row r="344" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="344" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H344"/>
     </row>
-    <row r="345" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="345" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H345"/>
     </row>
-    <row r="346" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="346" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H346"/>
     </row>
-    <row r="347" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="347" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H347"/>
     </row>
-    <row r="348" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="348" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H348"/>
     </row>
-    <row r="349" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="349" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H349"/>
     </row>
-    <row r="350" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="350" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H350"/>
     </row>
-    <row r="351" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="351" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H351"/>
     </row>
-    <row r="352" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="352" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H352"/>
     </row>
-    <row r="353" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="353" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H353"/>
     </row>
-    <row r="354" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="354" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H354"/>
     </row>
-    <row r="355" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="355" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H355"/>
     </row>
-    <row r="356" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="356" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H356"/>
     </row>
-    <row r="357" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="357" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H357"/>
     </row>
-    <row r="358" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="358" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H358"/>
     </row>
-    <row r="359" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="359" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H359"/>
     </row>
-    <row r="360" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="360" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H360"/>
     </row>
-    <row r="361" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="361" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H361"/>
     </row>
-    <row r="362" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="362" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H362"/>
     </row>
-    <row r="363" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="363" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H363"/>
     </row>
-    <row r="364" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="364" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H364"/>
     </row>
-    <row r="365" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="365" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H365"/>
     </row>
-    <row r="366" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="366" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H366"/>
     </row>
-    <row r="367" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="367" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H367"/>
     </row>
-    <row r="368" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="368" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H368"/>
     </row>
-    <row r="369" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="369" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H369"/>
     </row>
-    <row r="370" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="370" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H370"/>
     </row>
-    <row r="371" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="371" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H371"/>
     </row>
-    <row r="372" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="372" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H372"/>
     </row>
-    <row r="373" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="373" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H373"/>
     </row>
-    <row r="374" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="374" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H374"/>
     </row>
-    <row r="375" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="375" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H375"/>
     </row>
-    <row r="376" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="376" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H376"/>
     </row>
-    <row r="377" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="377" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H377"/>
     </row>
-    <row r="378" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="378" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H378"/>
     </row>
-    <row r="379" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="379" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H379"/>
     </row>
-    <row r="380" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="380" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H380"/>
     </row>
-    <row r="381" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="381" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H381"/>
     </row>
-    <row r="382" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="382" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H382"/>
     </row>
-    <row r="383" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="383" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H383"/>
     </row>
-    <row r="384" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="384" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H384"/>
     </row>
-    <row r="385" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="385" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H385"/>
     </row>
-    <row r="386" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="386" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H386"/>
     </row>
-    <row r="387" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="387" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H387"/>
     </row>
-    <row r="388" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="388" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H388"/>
     </row>
-    <row r="389" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="389" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H389"/>
     </row>
-    <row r="390" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="390" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H390"/>
     </row>
-    <row r="391" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="391" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H391"/>
     </row>
-    <row r="392" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="392" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H392"/>
     </row>
-    <row r="393" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="393" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H393"/>
     </row>
-    <row r="394" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="394" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H394"/>
     </row>
-    <row r="395" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="395" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H395"/>
     </row>
-    <row r="396" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="396" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H396"/>
     </row>
-    <row r="397" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="397" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H397"/>
     </row>
-    <row r="398" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="398" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H398"/>
     </row>
-    <row r="399" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="399" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H399"/>
     </row>
-    <row r="400" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="400" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H400"/>
     </row>
-    <row r="401" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="401" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H401"/>
     </row>
-    <row r="402" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="402" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H402"/>
     </row>
-    <row r="403" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="403" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H403"/>
     </row>
-    <row r="404" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="404" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H404"/>
     </row>
-    <row r="405" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="405" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H405"/>
     </row>
-    <row r="406" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="406" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H406"/>
     </row>
-    <row r="407" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="407" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H407"/>
     </row>
-    <row r="408" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="408" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H408"/>
     </row>
-    <row r="409" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="409" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H409"/>
     </row>
-    <row r="410" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="410" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H410"/>
     </row>
-    <row r="411" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="411" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H411"/>
     </row>
-    <row r="412" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="412" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H412"/>
     </row>
-    <row r="413" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="413" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H413"/>
     </row>
-    <row r="414" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="414" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H414"/>
     </row>
-    <row r="415" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="415" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H415"/>
     </row>
-    <row r="416" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="416" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H416"/>
     </row>
-    <row r="417" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="417" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H417"/>
     </row>
-    <row r="418" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="418" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H418"/>
     </row>
-    <row r="419" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="419" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H419"/>
     </row>
-    <row r="420" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="420" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H420"/>
     </row>
-    <row r="421" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="421" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H421"/>
     </row>
-    <row r="422" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="422" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H422"/>
     </row>
-    <row r="423" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="423" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H423"/>
     </row>
-    <row r="424" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="424" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H424"/>
     </row>
-    <row r="425" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="425" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H425"/>
     </row>
-    <row r="426" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="426" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H426"/>
     </row>
-    <row r="427" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="427" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H427"/>
     </row>
-    <row r="428" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="428" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H428"/>
     </row>
-    <row r="429" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="429" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H429"/>
     </row>
-    <row r="430" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="430" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H430"/>
     </row>
-    <row r="431" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="431" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H431"/>
     </row>
-    <row r="432" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="432" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H432"/>
     </row>
-    <row r="433" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="433" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H433"/>
     </row>
-    <row r="434" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="434" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H434"/>
     </row>
-    <row r="435" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="435" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H435"/>
     </row>
-    <row r="436" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="436" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H436"/>
     </row>
-    <row r="437" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="437" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H437"/>
     </row>
-    <row r="438" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="438" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H438"/>
     </row>
-    <row r="439" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="439" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H439"/>
     </row>
-    <row r="440" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="440" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H440"/>
     </row>
-    <row r="441" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="441" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H441"/>
     </row>
-    <row r="442" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="442" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H442"/>
     </row>
-    <row r="443" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="443" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H443"/>
     </row>
-    <row r="444" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="444" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H444"/>
     </row>
-    <row r="445" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="445" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H445"/>
     </row>
-    <row r="446" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="446" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H446"/>
     </row>
-    <row r="447" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="447" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H447"/>
     </row>
-    <row r="448" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="448" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H448"/>
     </row>
-    <row r="449" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="449" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H449"/>
     </row>
-    <row r="450" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="450" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H450"/>
     </row>
-    <row r="451" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="451" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H451"/>
     </row>
-    <row r="452" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="452" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H452"/>
     </row>
-    <row r="453" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="453" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H453"/>
     </row>
-    <row r="454" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="454" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H454"/>
     </row>
-    <row r="455" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="455" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H455"/>
     </row>
-    <row r="456" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="456" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H456"/>
     </row>
-    <row r="457" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="457" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H457"/>
     </row>
-    <row r="458" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="458" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H458"/>
     </row>
-    <row r="459" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="459" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H459"/>
     </row>
-    <row r="460" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="460" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H460"/>
     </row>
-    <row r="461" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="461" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H461"/>
     </row>
-    <row r="462" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="462" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H462"/>
     </row>
-    <row r="463" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="463" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H463"/>
     </row>
-    <row r="464" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="464" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H464"/>
     </row>
-    <row r="465" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="465" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H465"/>
     </row>
-    <row r="466" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="466" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H466"/>
     </row>
-    <row r="467" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="467" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H467"/>
     </row>
-    <row r="468" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="468" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H468"/>
     </row>
-    <row r="469" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="469" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H469"/>
     </row>
-    <row r="470" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="470" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H470"/>
     </row>
-    <row r="471" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="471" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H471"/>
     </row>
-    <row r="472" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="472" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H472"/>
     </row>
-    <row r="473" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="473" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H473"/>
     </row>
-    <row r="474" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="474" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H474"/>
     </row>
-    <row r="475" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="475" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H475"/>
     </row>
-    <row r="476" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="476" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H476"/>
     </row>
-    <row r="477" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="477" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H477"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B158:B160"/>
+    <mergeCell ref="B141:B144"/>
+    <mergeCell ref="B151:B153"/>
+    <mergeCell ref="B133:B135"/>
+    <mergeCell ref="B125:B127"/>
+    <mergeCell ref="C1:H19"/>
+    <mergeCell ref="B118:B120"/>
+    <mergeCell ref="B109:B111"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="B87:B88"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="B54:B56"/>
     <mergeCell ref="B77:B79"/>
@@ -5421,17 +5437,8 @@
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C1:H19"/>
-    <mergeCell ref="B118:B120"/>
-    <mergeCell ref="B109:B111"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="B158:B160"/>
-    <mergeCell ref="B141:B144"/>
-    <mergeCell ref="B151:B153"/>
-    <mergeCell ref="B133:B135"/>
-    <mergeCell ref="B125:B127"/>
   </mergeCells>
+  <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
